--- a/outputs-HGR-r202-archive/g__Caecibacter_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Caecibacter_train.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,23 +1038,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_1.fasta</t>
+          <t>label_UMGS69_0.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9944202738233671</v>
+        <v>0.9998164969263277</v>
       </c>
       <c r="C20" t="n">
-        <v>2.219816248739435e-14</v>
+        <v>2.220357787129201e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005579726176538269</v>
+        <v>0.0001821733682704122</v>
       </c>
       <c r="E20" t="n">
-        <v>7.246056315146278e-14</v>
+        <v>1.329705379739758e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9944202738233671</v>
+        <v>0.9998164969263277</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1065,23 +1065,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_10.fasta</t>
+          <t>label_UMGS69_3.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9384312004918326</v>
+        <v>0.986933504745196</v>
       </c>
       <c r="C21" t="n">
-        <v>2.219930223044966e-14</v>
+        <v>2.219825406976927e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06156879950812313</v>
+        <v>0.01306363462019466</v>
       </c>
       <c r="E21" t="n">
-        <v>2.219930223044966e-14</v>
+        <v>2.860634587165249e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9384312004918326</v>
+        <v>0.986933504745196</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1092,23 +1092,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_11.fasta</t>
+          <t>label_UMGS69_33.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9526022627756793</v>
+        <v>0.9816628685318418</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01342584231922042</v>
+        <v>2.219826673967209e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03377953181297864</v>
+        <v>0.01828189137807088</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001923630921217149</v>
+        <v>5.524009006521082e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9526022627756793</v>
+        <v>0.9816628685318418</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_16.fasta</t>
+          <t>label_UMGS69_34.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9918164353673706</v>
+        <v>0.9935902009877537</v>
       </c>
       <c r="C23" t="n">
-        <v>2.219826613026373e-14</v>
+        <v>2.219814388281083e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0081835521353047</v>
+        <v>0.006403518311366663</v>
       </c>
       <c r="E23" t="n">
-        <v>1.249730233282406e-08</v>
+        <v>6.280700857175802e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9918164353673706</v>
+        <v>0.9935902009877537</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1146,23 +1146,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_21.fasta</t>
+          <t>label_UMGS69_38.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9171477914654637</v>
+        <v>0.9975920831955697</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02886224119083347</v>
+        <v>2.219826384230495e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05334402123940851</v>
+        <v>0.002252795000363233</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006459461042943475</v>
+        <v>0.0001551218040448865</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9171477914654637</v>
+        <v>0.9975920831955697</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1173,23 +1173,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_41.fasta</t>
+          <t>label_UMGS69_48.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9726765089899176</v>
+        <v>0.9697815993663496</v>
       </c>
       <c r="C25" t="n">
-        <v>2.219880517274481e-14</v>
+        <v>2.219847479506841e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02732349100687425</v>
+        <v>0.03021839021734903</v>
       </c>
       <c r="E25" t="n">
-        <v>3.186020683778486e-12</v>
+        <v>1.041627912930181e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9726765089899176</v>
+        <v>0.9697815993663496</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1200,23 +1200,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_45.fasta</t>
+          <t>label_UMGS69_5.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9613032572141528</v>
+        <v>0.9861017850656284</v>
       </c>
       <c r="C26" t="n">
-        <v>2.219872884392421e-14</v>
+        <v>2.2198227934123e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03869674261576631</v>
+        <v>0.01389821030978253</v>
       </c>
       <c r="E26" t="n">
-        <v>1.700586520415546e-10</v>
+        <v>4.624566752901963e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9613032572141528</v>
+        <v>0.9861017850656284</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1227,23 +1227,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_51.fasta</t>
+          <t>label_UMGS69_61.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9325168727800233</v>
+        <v>0.9327640800669191</v>
       </c>
       <c r="C27" t="n">
-        <v>2.219901180580251e-14</v>
+        <v>4.77529166376473e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06748312651166914</v>
+        <v>0.06329239939564478</v>
       </c>
       <c r="E27" t="n">
-        <v>7.082853612103749e-10</v>
+        <v>0.003943520537388395</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9325168727800233</v>
+        <v>0.9327640800669191</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1254,23 +1254,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_52.fasta</t>
+          <t>label_UMGS69_67.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.503768896675778</v>
+        <v>0.8488800470847041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234876437161337</v>
+        <v>7.099418423720917e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2596652402791519</v>
+        <v>0.1431352022314913</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001689425883733039</v>
+        <v>0.007984750683733721</v>
       </c>
       <c r="F28" t="n">
-        <v>0.503768896675778</v>
+        <v>0.8488800470847041</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1281,23 +1281,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_54.fasta</t>
+          <t>label_UMGS69_69.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9183699365616169</v>
+        <v>0.9290264183846245</v>
       </c>
       <c r="C29" t="n">
-        <v>2.219997072758208e-14</v>
+        <v>2.21995244793741e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08163006343398191</v>
+        <v>0.07063536294785799</v>
       </c>
       <c r="E29" t="n">
-        <v>4.378881179638108e-12</v>
+        <v>0.0003382186674951435</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9183699365616169</v>
+        <v>0.9290264183846245</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1308,23 +1308,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_60.fasta</t>
+          <t>label_UMGS69_79.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9084081831239883</v>
+        <v>0.9605296291970294</v>
       </c>
       <c r="C30" t="n">
-        <v>2.21990466355538e-14</v>
+        <v>2.219807309912093e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09089428522911626</v>
+        <v>0.03943454384153948</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006975316468731815</v>
+        <v>3.582696140879296e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9084081831239883</v>
+        <v>0.9605296291970294</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1335,23 +1335,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_62.fasta</t>
+          <t>label_UMGS69_9.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9201219743678022</v>
+        <v>0.9969418719745239</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219996822870504e-14</v>
+        <v>2.219809429531991e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07987799072801791</v>
+        <v>0.003057329484262263</v>
       </c>
       <c r="E31" t="n">
-        <v>3.490415775540487e-08</v>
+        <v>7.98541191781169e-07</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9201219743678022</v>
+        <v>0.9969418719745239</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1362,23 +1362,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_64.fasta</t>
+          <t>label_UMGS69_12.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9105543511289782</v>
+        <v>0.9894121192472718</v>
       </c>
       <c r="C32" t="n">
-        <v>2.219948147708173e-14</v>
+        <v>2.219826341462363e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08944564887060802</v>
+        <v>0.01058788074967583</v>
       </c>
       <c r="E32" t="n">
-        <v>3.916264449188031e-13</v>
+        <v>3.030291660990192e-12</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9105543511289782</v>
+        <v>0.9894121192472718</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1389,50 +1389,50 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_68.fasta</t>
+          <t>label_UMGS69_14.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1561218728575797</v>
+        <v>0.9774051199209829</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5772566219099547</v>
+        <v>2.21984335638197e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2608783007493347</v>
+        <v>0.0225948799477878</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005743204483130831</v>
+        <v>1.312071774662824e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5772566219099547</v>
+        <v>0.9774051199209829</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_72.fasta</t>
+          <t>label_UMGS69_17.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9542562184589711</v>
+        <v>0.9832987207678456</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02368869529799522</v>
+        <v>2.219842591558969e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02151218791870724</v>
+        <v>0.01670127899103348</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000542898324326251</v>
+        <v>2.410986664068525e-10</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9542562184589711</v>
+        <v>0.9832987207678456</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1443,23 +1443,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_73.fasta</t>
+          <t>label_UMGS69_18.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9915746341992705</v>
+        <v>0.9698897599015314</v>
       </c>
       <c r="C35" t="n">
-        <v>2.220688633332879e-14</v>
+        <v>2.219870931173329e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008425365431359385</v>
+        <v>0.03011024009238673</v>
       </c>
       <c r="E35" t="n">
-        <v>3.693479638681637e-10</v>
+        <v>6.059597735653262e-12</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9915746341992705</v>
+        <v>0.9698897599015314</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1470,50 +1470,50 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_77.fasta</t>
+          <t>label_UMGS69_23.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1040063268771421</v>
+        <v>0.9748139186711787</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7456134197085637</v>
+        <v>2.2198513031195e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1331817732782777</v>
+        <v>0.02518608132792157</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01719848013601652</v>
+        <v>8.775575930423552e-13</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7456134197085637</v>
+        <v>0.9748139186711787</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_0.fasta</t>
+          <t>label_UMGS69_24.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9998164969263277</v>
+        <v>0.9587454117454315</v>
       </c>
       <c r="C37" t="n">
-        <v>2.220357787129201e-14</v>
+        <v>2.219903452851721e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001821733682704122</v>
+        <v>0.04125458824956062</v>
       </c>
       <c r="E37" t="n">
-        <v>1.329705379739758e-06</v>
+        <v>4.985743813929411e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9998164969263277</v>
+        <v>0.9587454117454315</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1524,23 +1524,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_3.fasta</t>
+          <t>label_UMGS69_56.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.986933504745196</v>
+        <v>0.9191930904372477</v>
       </c>
       <c r="C38" t="n">
-        <v>2.219825406976927e-14</v>
+        <v>2.219992544153092e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01306363462019466</v>
+        <v>0.0807968189010304</v>
       </c>
       <c r="E38" t="n">
-        <v>2.860634587165249e-06</v>
+        <v>1.009066169969672e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.986933504745196</v>
+        <v>0.9191930904372477</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1551,23 +1551,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_33.fasta</t>
+          <t>label_UMGS69_6.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9816628685318418</v>
+        <v>0.9919182479560368</v>
       </c>
       <c r="C39" t="n">
-        <v>2.219826673967209e-14</v>
+        <v>2.219820434627937e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01828189137807088</v>
+        <v>0.008081752043198966</v>
       </c>
       <c r="E39" t="n">
-        <v>5.524009006521082e-05</v>
+        <v>7.420975823693583e-13</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9816628685318418</v>
+        <v>0.9919182479560368</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1578,50 +1578,50 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_34.fasta</t>
+          <t>label_UMGS69_65.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9935902009877537</v>
+        <v>0.1975012645700595</v>
       </c>
       <c r="C40" t="n">
-        <v>2.219814388281083e-14</v>
+        <v>0.2164641293666879</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006403518311366663</v>
+        <v>0.1161470061019485</v>
       </c>
       <c r="E40" t="n">
-        <v>6.280700857175802e-06</v>
+        <v>0.4698875999613041</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9935902009877537</v>
+        <v>0.4698875999613041</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_38.fasta</t>
+          <t>label_UMGS69_7.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9975920831955697</v>
+        <v>0.9822412913276085</v>
       </c>
       <c r="C41" t="n">
-        <v>2.219826384230495e-14</v>
+        <v>2.219844377867299e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002252795000363233</v>
+        <v>0.01775848126769504</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0001551218040448865</v>
+        <v>2.274046741409273e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9975920831955697</v>
+        <v>0.9822412913276085</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1632,131 +1632,131 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_48.fasta</t>
+          <t>label_UMGS69_70.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9697815993663496</v>
+        <v>0.1769596681656971</v>
       </c>
       <c r="C42" t="n">
-        <v>2.219847479506841e-14</v>
+        <v>0.5725721889830836</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03021839021734903</v>
+        <v>0.131848891206668</v>
       </c>
       <c r="E42" t="n">
-        <v>1.041627912930181e-08</v>
+        <v>0.1186192516445512</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9697815993663496</v>
+        <v>0.5725721889830836</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_5.fasta</t>
+          <t>label_UMGS69_74.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9861017850656284</v>
+        <v>0.1567222780404543</v>
       </c>
       <c r="C43" t="n">
-        <v>2.2198227934123e-14</v>
+        <v>0.7051734136567369</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01389821030978253</v>
+        <v>0.1262839899275575</v>
       </c>
       <c r="E43" t="n">
-        <v>4.624566752901963e-09</v>
+        <v>0.0118203183752511</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9861017850656284</v>
+        <v>0.7051734136567369</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_61.fasta</t>
+          <t>label_UMGS69_75.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9327640800669191</v>
+        <v>0.2922997734942053</v>
       </c>
       <c r="C44" t="n">
-        <v>4.77529166376473e-14</v>
+        <v>0.681966047198018</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06329239939564478</v>
+        <v>0.01764781994449566</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003943520537388395</v>
+        <v>0.008086359363281006</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9327640800669191</v>
+        <v>0.681966047198018</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_67.fasta</t>
+          <t>label_UMGS69_76.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8488800470847041</v>
+        <v>0.1166314949646764</v>
       </c>
       <c r="C45" t="n">
-        <v>7.099418423720917e-14</v>
+        <v>0.745583507040843</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1431352022314913</v>
+        <v>0.1289529413131651</v>
       </c>
       <c r="E45" t="n">
-        <v>0.007984750683733721</v>
+        <v>0.008832056681315564</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8488800470847041</v>
+        <v>0.745583507040843</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_69.fasta</t>
+          <t>label_UMGS69_8.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9290264183846245</v>
+        <v>0.9927832425417094</v>
       </c>
       <c r="C46" t="n">
-        <v>2.21995244793741e-14</v>
+        <v>2.21981782767798e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07063536294785799</v>
+        <v>0.007216756647586839</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0003382186674951435</v>
+        <v>8.106815841450541e-10</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9290264183846245</v>
+        <v>0.9927832425417094</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1767,104 +1767,104 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_79.fasta</t>
+          <t>label_UMGS69_81.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9605296291970294</v>
+        <v>0.4344114175803261</v>
       </c>
       <c r="C47" t="n">
-        <v>2.219807309912093e-14</v>
+        <v>0.4975439692964813</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03943454384153948</v>
+        <v>0.001142606814278712</v>
       </c>
       <c r="E47" t="n">
-        <v>3.582696140879296e-05</v>
+        <v>0.06690200630891403</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9605296291970294</v>
+        <v>0.4975439692964813</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_9.fasta</t>
+          <t>label_UMGS69_82.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9969418719745239</v>
+        <v>0.2083108923805558</v>
       </c>
       <c r="C48" t="n">
-        <v>2.219809429531991e-14</v>
+        <v>0.7526985092264606</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003057329484262263</v>
+        <v>0.03725764289865992</v>
       </c>
       <c r="E48" t="n">
-        <v>7.98541191781169e-07</v>
+        <v>0.001732955494323607</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9969418719745239</v>
+        <v>0.7526985092264606</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_12.fasta</t>
+          <t>label_UMGS69_83.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9894121192472718</v>
+        <v>0.4996805917025397</v>
       </c>
       <c r="C49" t="n">
-        <v>2.219826341462363e-14</v>
+        <v>0.497487017483679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01058788074967583</v>
+        <v>0.001332459033919212</v>
       </c>
       <c r="E49" t="n">
-        <v>3.030291660990192e-12</v>
+        <v>0.001499931779862042</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9894121192472718</v>
+        <v>0.4996805917025397</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_14.fasta</t>
+          <t>label_UMGS69_2.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9774051199209829</v>
+        <v>0.9990947487617743</v>
       </c>
       <c r="C50" t="n">
-        <v>2.21984335638197e-14</v>
+        <v>2.219851259497038e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0225948799477878</v>
+        <v>0.0009052512381812878</v>
       </c>
       <c r="E50" t="n">
-        <v>1.312071774662824e-10</v>
+        <v>2.219851259497038e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9774051199209829</v>
+        <v>0.9990947487617743</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1875,23 +1875,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_17.fasta</t>
+          <t>label_UMGS69_20.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9832987207678456</v>
+        <v>0.9872307973098449</v>
       </c>
       <c r="C51" t="n">
-        <v>2.219842591558969e-14</v>
+        <v>2.219827915628711e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01670127899103348</v>
+        <v>0.01276920269011071</v>
       </c>
       <c r="E51" t="n">
-        <v>2.410986664068525e-10</v>
+        <v>2.219827915628711e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9832987207678456</v>
+        <v>0.9872307973098449</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1902,23 +1902,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_18.fasta</t>
+          <t>label_UMGS69_25.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9698897599015314</v>
+        <v>0.9405414032582672</v>
       </c>
       <c r="C52" t="n">
-        <v>2.219870931173329e-14</v>
+        <v>2.219948539532665e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03011024009238673</v>
+        <v>0.05945859674168848</v>
       </c>
       <c r="E52" t="n">
-        <v>6.059597735653262e-12</v>
+        <v>2.219948539532665e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9698897599015314</v>
+        <v>0.9405414032582672</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1929,23 +1929,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_23.fasta</t>
+          <t>label_UMGS69_28.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9748139186711787</v>
+        <v>0.9874876578622425</v>
       </c>
       <c r="C53" t="n">
-        <v>2.2198513031195e-14</v>
+        <v>2.219826164634018e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02518608132792157</v>
+        <v>0.01251234213771315</v>
       </c>
       <c r="E53" t="n">
-        <v>8.775575930423552e-13</v>
+        <v>2.219826164634018e-14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9748139186711787</v>
+        <v>0.9874876578622425</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_24.fasta</t>
+          <t>label_UMGS69_29.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9587454117454315</v>
+        <v>0.9853194620175153</v>
       </c>
       <c r="C54" t="n">
-        <v>2.219903452851721e-14</v>
+        <v>2.219846379446121e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04125458824956062</v>
+        <v>0.01468053798244043</v>
       </c>
       <c r="E54" t="n">
-        <v>4.985743813929411e-12</v>
+        <v>2.219846379446121e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9587454117454315</v>
+        <v>0.9853194620175153</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1983,23 +1983,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_56.fasta</t>
+          <t>label_UMGS69_31.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9191930904372477</v>
+        <v>0.960206750807489</v>
       </c>
       <c r="C55" t="n">
-        <v>2.219992544153092e-14</v>
+        <v>2.219880500446574e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0807968189010304</v>
+        <v>0.03979324919246666</v>
       </c>
       <c r="E55" t="n">
-        <v>1.009066169969672e-05</v>
+        <v>2.219880500446574e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9191930904372477</v>
+        <v>0.960206750807489</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2010,23 +2010,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_6.fasta</t>
+          <t>label_UMGS69_35.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9919182479560368</v>
+        <v>0.6845892647462619</v>
       </c>
       <c r="C56" t="n">
-        <v>2.219820434627937e-14</v>
+        <v>0.04599070152672556</v>
       </c>
       <c r="D56" t="n">
-        <v>0.008081752043198966</v>
+        <v>0.2685702258143639</v>
       </c>
       <c r="E56" t="n">
-        <v>7.420975823693583e-13</v>
+        <v>0.0008498079126486416</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9919182479560368</v>
+        <v>0.6845892647462619</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2037,50 +2037,50 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_65.fasta</t>
+          <t>label_UMGS69_36.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1975012645700595</v>
+        <v>0.9674531439619939</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2164641293666879</v>
+        <v>2.219875495772776e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1161470061019485</v>
+        <v>0.03254685603796166</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4698875999613041</v>
+        <v>2.219875495772776e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4698875999613041</v>
+        <v>0.9674531439619939</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_7.fasta</t>
+          <t>label_UMGS69_37.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9822412913276085</v>
+        <v>0.9479086381967619</v>
       </c>
       <c r="C58" t="n">
-        <v>2.219844377867299e-14</v>
+        <v>2.219894087305781e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01775848126769504</v>
+        <v>0.0520913618031937</v>
       </c>
       <c r="E58" t="n">
-        <v>2.274046741409273e-07</v>
+        <v>2.219894087305781e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9822412913276085</v>
+        <v>0.9479086381967619</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2091,131 +2091,131 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_70.fasta</t>
+          <t>label_UMGS69_39.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1769596681656971</v>
+        <v>0.9481195018481785</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5725721889830836</v>
+        <v>2.219941292118783e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131848891206668</v>
+        <v>0.05188049815177703</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1186192516445512</v>
+        <v>2.219941292118783e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5725721889830836</v>
+        <v>0.9481195018481785</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_74.fasta</t>
+          <t>label_UMGS69_43.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1567222780404543</v>
+        <v>0.9644240296851109</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7051734136567369</v>
+        <v>2.219897206043882e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1262839899275575</v>
+        <v>0.03557597031484469</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0118203183752511</v>
+        <v>2.219897206043882e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7051734136567369</v>
+        <v>0.9644240296851109</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_75.fasta</t>
+          <t>label_UMGS69_44.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2922997734942053</v>
+        <v>0.9557828239407624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.681966047198018</v>
+        <v>2.219886511791041e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01764781994449566</v>
+        <v>0.04421717605919315</v>
       </c>
       <c r="E61" t="n">
-        <v>0.008086359363281006</v>
+        <v>2.219886511791041e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>0.681966047198018</v>
+        <v>0.9557828239407624</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_76.fasta</t>
+          <t>label_UMGS69_47.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1166314949646764</v>
+        <v>0.9746953702653766</v>
       </c>
       <c r="C62" t="n">
-        <v>0.745583507040843</v>
+        <v>2.219850373815567e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1289529413131651</v>
+        <v>0.02530462973457917</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008832056681315564</v>
+        <v>2.219850373815567e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>0.745583507040843</v>
+        <v>0.9746953702653766</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_8.fasta</t>
+          <t>label_UMGS69_50.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9927832425417094</v>
+        <v>0.9401611115676902</v>
       </c>
       <c r="C63" t="n">
-        <v>2.21981782767798e-14</v>
+        <v>2.219954296805182e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007216756647586839</v>
+        <v>0.05983888843226531</v>
       </c>
       <c r="E63" t="n">
-        <v>8.106815841450541e-10</v>
+        <v>2.219954296805182e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9927832425417094</v>
+        <v>0.9401611115676902</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2226,104 +2226,104 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_81.fasta</t>
+          <t>label_UMGS69_55.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.4344114175803261</v>
+        <v>0.9384341472011287</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4975439692964813</v>
+        <v>2.219949011078453e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001142606814278712</v>
+        <v>0.06156585279882682</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06690200630891403</v>
+        <v>2.219949011078453e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4975439692964813</v>
+        <v>0.9384341472011287</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_82.fasta</t>
+          <t>label_UMGS69_57.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2083108923805558</v>
+        <v>0.8238412614525512</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7526985092264606</v>
+        <v>2.220056159368127e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03725764289865992</v>
+        <v>0.1761587385474044</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001732955494323607</v>
+        <v>2.220056159368127e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7526985092264606</v>
+        <v>0.8238412614525512</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_83.fasta</t>
+          <t>label_UMGS69_63.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4996805917025397</v>
+        <v>0.9242959298309766</v>
       </c>
       <c r="C66" t="n">
-        <v>0.497487017483679</v>
+        <v>2.219963195877584e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001332459033919212</v>
+        <v>0.07570407016897891</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001499931779862042</v>
+        <v>2.219963195877584e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4996805917025397</v>
+        <v>0.9242959298309766</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_2.fasta</t>
+          <t>label_UMGS69_78.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9990947487617743</v>
+        <v>0.8981261373376627</v>
       </c>
       <c r="C67" t="n">
-        <v>2.219851259497038e-14</v>
+        <v>0.07825049517548706</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0009052512381812878</v>
+        <v>0.02276716529824544</v>
       </c>
       <c r="E67" t="n">
-        <v>2.219851259497038e-14</v>
+        <v>0.0008562021886048538</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9990947487617743</v>
+        <v>0.8981261373376627</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2334,23 +2334,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_20.fasta</t>
+          <t>label_UMGS69_80.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9872307973098449</v>
+        <v>0.8821963899526463</v>
       </c>
       <c r="C68" t="n">
-        <v>2.219827915628711e-14</v>
+        <v>0.1073678188196565</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01276920269011071</v>
+        <v>0.009570482745702122</v>
       </c>
       <c r="E68" t="n">
-        <v>2.219827915628711e-14</v>
+        <v>0.0008653084819951688</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9872307973098449</v>
+        <v>0.8821963899526463</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2361,23 +2361,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_25.fasta</t>
+          <t>label_UMGS69_84.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9405414032582672</v>
+        <v>0.9750135596396327</v>
       </c>
       <c r="C69" t="n">
-        <v>2.219948539532665e-14</v>
+        <v>0.02363149292554045</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05945859674168848</v>
+        <v>0.0006774806560032606</v>
       </c>
       <c r="E69" t="n">
-        <v>2.219948539532665e-14</v>
+        <v>0.0006774667788237909</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9405414032582672</v>
+        <v>0.9750135596396327</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2388,50 +2388,50 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_28.fasta</t>
+          <t>label_UMGS69_85.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9874876578622425</v>
+        <v>0.4753497235169761</v>
       </c>
       <c r="C70" t="n">
-        <v>2.219826164634018e-14</v>
+        <v>0.04358176724438231</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01251234213771315</v>
+        <v>0.0008453710252475866</v>
       </c>
       <c r="E70" t="n">
-        <v>2.219826164634018e-14</v>
+        <v>0.4802231382133941</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9874876578622425</v>
+        <v>0.4802231382133941</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_29.fasta</t>
+          <t>label_UMGS69_13.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9853194620175153</v>
+        <v>0.9660037178439808</v>
       </c>
       <c r="C71" t="n">
-        <v>2.219846379446121e-14</v>
+        <v>2.219862634740905e-14</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01468053798244043</v>
+        <v>0.033996020536566</v>
       </c>
       <c r="E71" t="n">
-        <v>2.219846379446121e-14</v>
+        <v>2.616194310164562e-07</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9853194620175153</v>
+        <v>0.9660037178439808</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2442,23 +2442,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_31.fasta</t>
+          <t>label_UMGS69_15.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.960206750807489</v>
+        <v>0.9743956147839247</v>
       </c>
       <c r="C72" t="n">
-        <v>2.219880500446574e-14</v>
+        <v>2.21983491230636e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03979324919246666</v>
+        <v>0.02560340845630451</v>
       </c>
       <c r="E72" t="n">
-        <v>2.219880500446574e-14</v>
+        <v>9.767597486031794e-07</v>
       </c>
       <c r="F72" t="n">
-        <v>0.960206750807489</v>
+        <v>0.9743956147839247</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2469,23 +2469,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_35.fasta</t>
+          <t>label_UMGS69_19.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6845892647462619</v>
+        <v>0.9214745737234331</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04599070152672556</v>
+        <v>0.02698791522862463</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2685702258143639</v>
+        <v>0.05083459012970773</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0008498079126486416</v>
+        <v>0.0007029209182345484</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6845892647462619</v>
+        <v>0.9214745737234331</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2496,23 +2496,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_36.fasta</t>
+          <t>label_UMGS69_22.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9674531439619939</v>
+        <v>0.9840380995546192</v>
       </c>
       <c r="C74" t="n">
-        <v>2.219875495772776e-14</v>
+        <v>2.219797445472665e-14</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03254685603796166</v>
+        <v>0.01592657138089634</v>
       </c>
       <c r="E74" t="n">
-        <v>2.219875495772776e-14</v>
+        <v>3.532906446224352e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9674531439619939</v>
+        <v>0.9840380995546192</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2523,23 +2523,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_37.fasta</t>
+          <t>label_UMGS69_26.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9479086381967619</v>
+        <v>0.9848583293366598</v>
       </c>
       <c r="C75" t="n">
-        <v>2.219894087305781e-14</v>
+        <v>2.21983602229975e-14</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0520913618031937</v>
+        <v>0.01514155781789338</v>
       </c>
       <c r="E75" t="n">
-        <v>2.219894087305781e-14</v>
+        <v>1.128454245729924e-07</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9479086381967619</v>
+        <v>0.9848583293366598</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2550,23 +2550,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_39.fasta</t>
+          <t>label_UMGS69_27.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9481195018481785</v>
+        <v>0.5627536145378674</v>
       </c>
       <c r="C76" t="n">
-        <v>2.219941292118783e-14</v>
+        <v>0.3509261765928413</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05188049815177703</v>
+        <v>0.04264408890564887</v>
       </c>
       <c r="E76" t="n">
-        <v>2.219941292118783e-14</v>
+        <v>0.04367611996364248</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9481195018481785</v>
+        <v>0.5627536145378674</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2577,23 +2577,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_43.fasta</t>
+          <t>label_UMGS69_30.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9644240296851109</v>
+        <v>0.9612359280084625</v>
       </c>
       <c r="C77" t="n">
-        <v>2.219897206043882e-14</v>
+        <v>2.219840734750773e-14</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03557597031484469</v>
+        <v>0.03876388453767245</v>
       </c>
       <c r="E77" t="n">
-        <v>2.219897206043882e-14</v>
+        <v>1.874538427978616e-07</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9644240296851109</v>
+        <v>0.9612359280084625</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2604,23 +2604,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_44.fasta</t>
+          <t>label_UMGS69_32.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9557828239407624</v>
+        <v>0.9671238967236628</v>
       </c>
       <c r="C78" t="n">
-        <v>2.219886511791041e-14</v>
+        <v>2.219885147458885e-14</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04421717605919315</v>
+        <v>0.0328760750860059</v>
       </c>
       <c r="E78" t="n">
-        <v>2.219886511791041e-14</v>
+        <v>2.819030903771582e-08</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9557828239407624</v>
+        <v>0.9671238967236628</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_47.fasta</t>
+          <t>label_UMGS69_4.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9746953702653766</v>
+        <v>0.9924512593606002</v>
       </c>
       <c r="C79" t="n">
-        <v>2.219850373815567e-14</v>
+        <v>2.219817226880108e-14</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02530462973457917</v>
+        <v>0.007548128740098609</v>
       </c>
       <c r="E79" t="n">
-        <v>2.219850373815567e-14</v>
+        <v>6.118992790218071e-07</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9746953702653766</v>
+        <v>0.9924512593606002</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2658,23 +2658,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_50.fasta</t>
+          <t>label_UMGS69_40.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9401611115676902</v>
+        <v>0.9132512238161249</v>
       </c>
       <c r="C80" t="n">
-        <v>2.219954296805182e-14</v>
+        <v>2.219901174678371e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05983888843226531</v>
+        <v>0.08674819797273797</v>
       </c>
       <c r="E80" t="n">
-        <v>2.219954296805182e-14</v>
+        <v>5.78211114973311e-07</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9401611115676902</v>
+        <v>0.9132512238161249</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2685,23 +2685,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_55.fasta</t>
+          <t>label_UMGS69_42.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9384341472011287</v>
+        <v>0.9395664285188111</v>
       </c>
       <c r="C81" t="n">
-        <v>2.219949011078453e-14</v>
+        <v>2.219476657840303e-14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06156585279882682</v>
+        <v>0.0604116527384597</v>
       </c>
       <c r="E81" t="n">
-        <v>2.219949011078453e-14</v>
+        <v>2.191874270717135e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9384341472011287</v>
+        <v>0.9395664285188111</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2712,23 +2712,23 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_57.fasta</t>
+          <t>label_UMGS69_46.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8238412614525512</v>
+        <v>0.9598182191344629</v>
       </c>
       <c r="C82" t="n">
-        <v>2.220056159368127e-14</v>
+        <v>2.219780592596564e-14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1761587385474044</v>
+        <v>0.04018115221232469</v>
       </c>
       <c r="E82" t="n">
-        <v>2.220056159368127e-14</v>
+        <v>6.286531903114106e-07</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8238412614525512</v>
+        <v>0.9598182191344629</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2739,23 +2739,23 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_63.fasta</t>
+          <t>label_UMGS69_49.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9242959298309766</v>
+        <v>0.7784712841687628</v>
       </c>
       <c r="C83" t="n">
-        <v>2.219963195877584e-14</v>
+        <v>2.219967160797941e-14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07570407016897891</v>
+        <v>0.2215053004222206</v>
       </c>
       <c r="E83" t="n">
-        <v>2.219963195877584e-14</v>
+        <v>2.341540899425442e-05</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9242959298309766</v>
+        <v>0.7784712841687628</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2766,23 +2766,23 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_78.fasta</t>
+          <t>label_UMGS69_53.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8981261373376627</v>
+        <v>0.9641299924273369</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07825049517548706</v>
+        <v>2.219860419574465e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02276716529824544</v>
+        <v>0.03586995686128998</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0008562021886048538</v>
+        <v>5.071135094093423e-08</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8981261373376627</v>
+        <v>0.9641299924273369</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2793,23 +2793,23 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_80.fasta</t>
+          <t>label_UMGS69_58.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8821963899526463</v>
+        <v>0.9274583600440494</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1073678188196565</v>
+        <v>2.219891027408371e-14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.009570482745702122</v>
+        <v>0.07254125598397376</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0008653084819951688</v>
+        <v>3.839719547117812e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8821963899526463</v>
+        <v>0.9274583600440494</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2820,23 +2820,23 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_84.fasta</t>
+          <t>label_UMGS69_59.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9750135596396327</v>
+        <v>0.9459336053930663</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02363149292554045</v>
+        <v>2.219872262386878e-14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0006774806560032606</v>
+        <v>0.05406634382806341</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0006774667788237909</v>
+        <v>5.077884800247548e-08</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9750135596396327</v>
+        <v>0.9459336053930663</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2847,511 +2847,52 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_85.fasta</t>
+          <t>label_UMGS69_66.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4753497235169761</v>
+        <v>0.788019305894796</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04358176724438231</v>
+        <v>2.220043388394929e-14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0008453710252475866</v>
+        <v>0.2119669976350027</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4802231382133941</v>
+        <v>1.369647017920671e-05</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4802231382133941</v>
+        <v>0.788019305894796</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS69_13.fasta</t>
+          <t>label_UMGS69_71.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9660037178439808</v>
+        <v>0.867666287591476</v>
       </c>
       <c r="C88" t="n">
-        <v>2.219862634740905e-14</v>
+        <v>0.0494546097401157</v>
       </c>
       <c r="D88" t="n">
-        <v>0.033996020536566</v>
+        <v>0.0813698569822604</v>
       </c>
       <c r="E88" t="n">
-        <v>2.616194310164562e-07</v>
+        <v>0.001509245686147964</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9660037178439808</v>
+        <v>0.867666287591476</v>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_15.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.9743956147839247</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.21983491230636e-14</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.02560340845630451</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.767597486031794e-07</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.9743956147839247</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_19.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.9214745737234331</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.02698791522862463</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.05083459012970773</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.0007029209182345484</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.9214745737234331</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_22.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.9840380995546192</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2.219797445472665e-14</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.01592657138089634</v>
-      </c>
-      <c r="E91" t="n">
-        <v>3.532906446224352e-05</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.9840380995546192</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_26.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.9848583293366598</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.21983602229975e-14</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.01514155781789338</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.128454245729924e-07</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.9848583293366598</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_27.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5627536145378674</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.3509261765928413</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.04264408890564887</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.04367611996364248</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.5627536145378674</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_30.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.9612359280084625</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.219840734750773e-14</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.03876388453767245</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.874538427978616e-07</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.9612359280084625</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_32.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.9671238967236628</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.219885147458885e-14</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.0328760750860059</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2.819030903771582e-08</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.9671238967236628</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_4.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.9924512593606002</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.219817226880108e-14</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.007548128740098609</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6.118992790218071e-07</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.9924512593606002</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_40.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.9132512238161249</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2.219901174678371e-14</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.08674819797273797</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.78211114973311e-07</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.9132512238161249</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_42.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.9395664285188111</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.219476657840303e-14</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.0604116527384597</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.191874270717135e-05</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.9395664285188111</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_46.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.9598182191344629</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.219780592596564e-14</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.04018115221232469</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.286531903114106e-07</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.9598182191344629</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_49.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.7784712841687628</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.219967160797941e-14</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.2215053004222206</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.341540899425442e-05</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.7784712841687628</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_53.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.9641299924273369</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2.219860419574465e-14</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.03586995686128998</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5.071135094093423e-08</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.9641299924273369</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_58.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.9274583600440494</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.219891027408371e-14</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.07254125598397376</v>
-      </c>
-      <c r="E102" t="n">
-        <v>3.839719547117812e-07</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.9274583600440494</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_59.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.9459336053930663</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.219872262386878e-14</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.05406634382806341</v>
-      </c>
-      <c r="E103" t="n">
-        <v>5.077884800247548e-08</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9459336053930663</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_66.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.788019305894796</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.220043388394929e-14</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.2119669976350027</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.369647017920671e-05</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.788019305894796</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS69_71.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.867666287591476</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.0494546097401157</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.0813698569822604</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.001509245686147964</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.867666287591476</v>
-      </c>
-      <c r="G105" t="inlineStr">
         <is>
           <t>s__Caecibacter hominis</t>
         </is>
@@ -3451,7 +2992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3823,23 +3364,23 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_18.fasta</t>
+          <t>label_UMGS20_0.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002270951629230611</v>
+        <v>0.001601114469326027</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4069489684740463</v>
+        <v>7.458275516652592e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5896522017172645</v>
+        <v>0.9983804617424989</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001127878179458486</v>
+        <v>1.842378810053386e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5896522017172645</v>
+        <v>0.9983804617424989</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3850,23 +3391,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_2.fasta</t>
+          <t>label_UMGS20_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001381702070381728</v>
+        <v>0.07025468448619955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2070595061931332</v>
+        <v>3.79417933581299e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7905563289557703</v>
+        <v>0.9296882798734629</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001002462780714878</v>
+        <v>5.703563995817903e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7905563289557703</v>
+        <v>0.9296882798734629</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3877,23 +3418,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_25.fasta</t>
+          <t>label_UMGS20_14.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003746887828250405</v>
+        <v>0.00823741213515632</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1786777467422289</v>
+        <v>5.376267221128132e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8166873855614522</v>
+        <v>0.9900980793732667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0008879798680686684</v>
+        <v>0.001664508491039417</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8166873855614522</v>
+        <v>0.9900980793732667</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3904,23 +3445,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_29.fasta</t>
+          <t>label_UMGS20_22.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01172803613466613</v>
+        <v>0.001069773067380989</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1491262164978468</v>
+        <v>9.293683961973433e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8382660982191782</v>
+        <v>0.9988943902374905</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0008796491483089362</v>
+        <v>3.583669503556365e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8382660982191782</v>
+        <v>0.9988943902374905</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3931,23 +3472,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_32.fasta</t>
+          <t>label_UMGS20_23.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003772566158251006</v>
+        <v>0.01458692674189605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1022408795714432</v>
+        <v>2.486900606390463e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8931283814852498</v>
+        <v>0.985180832057473</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0008581727850559209</v>
+        <v>0.0002322412003823143</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8931283814852498</v>
+        <v>0.985180832057473</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3958,50 +3499,50 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_43.fasta</t>
+          <t>label_UMGS20_3.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4572578711277948</v>
+        <v>0.0002331384920211694</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3791138662524042</v>
+        <v>4.132347065522083e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1626660690641705</v>
+        <v>0.9997623436833963</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0009621935556304153</v>
+        <v>4.517824541185102e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4572578711277948</v>
+        <v>0.9997623436833963</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_0.fasta</t>
+          <t>label_UMGS20_40.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001601114469326027</v>
+        <v>0.4825261736003855</v>
       </c>
       <c r="C20" t="n">
-        <v>7.458275516652592e-14</v>
+        <v>9.242807852037411e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9983804617424989</v>
+        <v>0.5159111508991391</v>
       </c>
       <c r="E20" t="n">
-        <v>1.842378810053386e-05</v>
+        <v>0.001562675500382956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9983804617424989</v>
+        <v>0.5159111508991391</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4012,23 +3553,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_11.fasta</t>
+          <t>label_UMGS20_41.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07025468448619955</v>
+        <v>0.160268956662258</v>
       </c>
       <c r="C21" t="n">
-        <v>3.79417933581299e-13</v>
+        <v>3.77222105737859e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9296882798734629</v>
+        <v>0.8169138776832783</v>
       </c>
       <c r="E21" t="n">
-        <v>5.703563995817903e-05</v>
+        <v>0.02281716565408638</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9296882798734629</v>
+        <v>0.8169138776832783</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4039,23 +3580,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_14.fasta</t>
+          <t>label_UMGS20_44.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00823741213515632</v>
+        <v>0.2752741187110555</v>
       </c>
       <c r="C22" t="n">
-        <v>5.376267221128132e-13</v>
+        <v>3.88909963502333e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9900980793732667</v>
+        <v>0.5423125111518488</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001664508491039417</v>
+        <v>0.1824133701367068</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9900980793732667</v>
+        <v>0.5423125111518488</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4066,23 +3607,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_22.fasta</t>
+          <t>label_UMGS20_7.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001069773067380989</v>
+        <v>0.002610446778174664</v>
       </c>
       <c r="C23" t="n">
-        <v>9.293683961973433e-14</v>
+        <v>2.057986849240364e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9988943902374905</v>
+        <v>0.9973543500114275</v>
       </c>
       <c r="E23" t="n">
-        <v>3.583669503556365e-05</v>
+        <v>3.520321019209917e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9988943902374905</v>
+        <v>0.9973543500114275</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4093,23 +3634,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_23.fasta</t>
+          <t>label_UMGS20_10.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01458692674189605</v>
+        <v>0.001292500509630703</v>
       </c>
       <c r="C24" t="n">
-        <v>2.486900606390463e-13</v>
+        <v>0.09798922667370587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.985180832057473</v>
+        <v>0.899835720044917</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002322412003823143</v>
+        <v>0.0008825527717464579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.985180832057473</v>
+        <v>0.899835720044917</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4120,23 +3661,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_3.fasta</t>
+          <t>label_UMGS20_16.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002331384920211694</v>
+        <v>0.00362600396735177</v>
       </c>
       <c r="C25" t="n">
-        <v>4.132347065522083e-14</v>
+        <v>0.262152244319625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997623436833963</v>
+        <v>0.7332600301216905</v>
       </c>
       <c r="E25" t="n">
-        <v>4.517824541185102e-06</v>
+        <v>0.0009617215913326339</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997623436833963</v>
+        <v>0.7332600301216905</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4147,23 +3688,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_40.fasta</t>
+          <t>label_UMGS20_17.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4825261736003855</v>
+        <v>0.0057575446508539</v>
       </c>
       <c r="C26" t="n">
-        <v>9.242807852037411e-14</v>
+        <v>0.2255681271060442</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5159111508991391</v>
+        <v>0.7677694435291964</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001562675500382956</v>
+        <v>0.0009048847139054836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5159111508991391</v>
+        <v>0.7677694435291964</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4174,23 +3715,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_41.fasta</t>
+          <t>label_UMGS20_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.160268956662258</v>
+        <v>0.001756387941119333</v>
       </c>
       <c r="C27" t="n">
-        <v>3.77222105737859e-13</v>
+        <v>0.1313993821755835</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8169138776832783</v>
+        <v>0.8659434692697144</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02281716565408638</v>
+        <v>0.0009007606135826267</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8169138776832783</v>
+        <v>0.8659434692697144</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4201,23 +3742,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_44.fasta</t>
+          <t>label_UMGS20_20.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2752741187110555</v>
+        <v>0.002564264736056715</v>
       </c>
       <c r="C28" t="n">
-        <v>3.88909963502333e-13</v>
+        <v>0.1070298693164324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5423125111518488</v>
+        <v>0.8895602279276122</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1824133701367068</v>
+        <v>0.0008456380198988167</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5423125111518488</v>
+        <v>0.8895602279276122</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4228,23 +3769,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_7.fasta</t>
+          <t>label_UMGS20_21.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002610446778174664</v>
+        <v>0.01134929887216664</v>
       </c>
       <c r="C29" t="n">
-        <v>2.057986849240364e-13</v>
+        <v>0.2395140135435703</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9973543500114275</v>
+        <v>0.7482254594233053</v>
       </c>
       <c r="E29" t="n">
-        <v>3.520321019209917e-05</v>
+        <v>0.0009112281609578116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9973543500114275</v>
+        <v>0.7482254594233053</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4255,23 +3796,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_10.fasta</t>
+          <t>label_UMGS20_28.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001292500509630703</v>
+        <v>0.1380051344884207</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09798922667370587</v>
+        <v>0.2515232190024843</v>
       </c>
       <c r="D30" t="n">
-        <v>0.899835720044917</v>
+        <v>0.6095559546643036</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0008825527717464579</v>
+        <v>0.0009156918447915647</v>
       </c>
       <c r="F30" t="n">
-        <v>0.899835720044917</v>
+        <v>0.6095559546643036</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4282,50 +3823,50 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_16.fasta</t>
+          <t>label_UMGS20_34.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00362600396735177</v>
+        <v>0.2019993712298885</v>
       </c>
       <c r="C31" t="n">
-        <v>0.262152244319625</v>
+        <v>0.509752906422646</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7332600301216905</v>
+        <v>0.2871729926496162</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0009617215913326339</v>
+        <v>0.001074729697849382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7332600301216905</v>
+        <v>0.509752906422646</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp003467125</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_17.fasta</t>
+          <t>label_UMGS20_36.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0057575446508539</v>
+        <v>0.03588006809607991</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2255681271060442</v>
+        <v>0.3274688377026547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7677694435291964</v>
+        <v>0.6355413846866468</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0009048847139054836</v>
+        <v>0.001109709514618499</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7677694435291964</v>
+        <v>0.6355413846866468</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4336,50 +3877,50 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_19.fasta</t>
+          <t>label_UMGS20_45.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001756387941119333</v>
+        <v>0.8211582314320396</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1313993821755835</v>
+        <v>0.1684851343732704</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8659434692697144</v>
+        <v>0.009460191104197869</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0009007606135826267</v>
+        <v>0.0008964430904921464</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8659434692697144</v>
+        <v>0.8211582314320396</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp003467125</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_20.fasta</t>
+          <t>label_UMGS20_9.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002564264736056715</v>
+        <v>0.002040021141480184</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1070298693164324</v>
+        <v>0.1481247836774491</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8895602279276122</v>
+        <v>0.8489290566294904</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0008456380198988167</v>
+        <v>0.0009061385515802633</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8895602279276122</v>
+        <v>0.8489290566294904</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4390,23 +3931,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_21.fasta</t>
+          <t>label_UMGS20_12.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01134929887216664</v>
+        <v>0.002352769399757439</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2395140135435703</v>
+        <v>0.07500987694387169</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7482254594233053</v>
+        <v>0.9218055090330052</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0009112281609578116</v>
+        <v>0.0008318446233656184</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7482254594233053</v>
+        <v>0.9218055090330052</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4417,23 +3958,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_28.fasta</t>
+          <t>label_UMGS20_15.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1380051344884207</v>
+        <v>0.0009481439704505043</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2515232190024843</v>
+        <v>0.06386772578280027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6095559546643036</v>
+        <v>0.9343517526173191</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0009156918447915647</v>
+        <v>0.0008323776294302875</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6095559546643036</v>
+        <v>0.9343517526173191</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4444,50 +3985,50 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_34.fasta</t>
+          <t>label_UMGS20_27.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2019993712298885</v>
+        <v>0.000817025968133091</v>
       </c>
       <c r="C37" t="n">
-        <v>0.509752906422646</v>
+        <v>0.04012586181871887</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2871729926496162</v>
+        <v>0.9583314740503722</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001074729697849382</v>
+        <v>0.0007256381627758137</v>
       </c>
       <c r="F37" t="n">
-        <v>0.509752906422646</v>
+        <v>0.9583314740503722</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_36.fasta</t>
+          <t>label_UMGS20_30.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03588006809607991</v>
+        <v>0.001659604972113934</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3274688377026547</v>
+        <v>0.04164520375700335</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6355413846866468</v>
+        <v>0.9558935605245403</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001109709514618499</v>
+        <v>0.0008016307463423097</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6355413846866468</v>
+        <v>0.9558935605245403</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4498,50 +4039,50 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_45.fasta</t>
+          <t>label_UMGS20_33.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8211582314320396</v>
+        <v>0.003851996387860816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1684851343732704</v>
+        <v>0.07256602055479237</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009460191104197869</v>
+        <v>0.9227323216886116</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0008964430904921464</v>
+        <v>0.0008496613687350605</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8211582314320396</v>
+        <v>0.9227323216886116</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_9.fasta</t>
+          <t>label_UMGS20_38.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.002040021141480184</v>
+        <v>0.01709161003002368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1481247836774491</v>
+        <v>0.09480355773878972</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8489290566294904</v>
+        <v>0.8872441125717135</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0009061385515802633</v>
+        <v>0.0008607196594730977</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8489290566294904</v>
+        <v>0.8872441125717135</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4552,77 +4093,77 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_12.fasta</t>
+          <t>label_UMGS20_46.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002352769399757439</v>
+        <v>0.8383170624909115</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07500987694387169</v>
+        <v>0.1590530149201002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9218055090330052</v>
+        <v>0.001695534879687873</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0008318446233656184</v>
+        <v>0.0009343877093003425</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9218055090330052</v>
+        <v>0.8383170624909115</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp003467125</t>
+          <t>s__Caecibacter hominis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_15.fasta</t>
+          <t>label_UMGS20_47.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0009481439704505043</v>
+        <v>0.02449238059835602</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06386772578280027</v>
+        <v>2.219707696492563e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9343517526173191</v>
+        <v>8.948041943898199e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0008323776294302875</v>
+        <v>0.9755067245974274</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9343517526173191</v>
+        <v>0.9755067245974274</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp003467125</t>
+          <t>s__Caecibacter sp900549385</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_27.fasta</t>
+          <t>label_UMGS20_6.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.000817025968133091</v>
+        <v>0.001027515038875153</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04012586181871887</v>
+        <v>0.1630142837412114</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9583314740503722</v>
+        <v>0.8349692025449978</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0007256381627758137</v>
+        <v>0.0009889986749156631</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9583314740503722</v>
+        <v>0.8349692025449978</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4633,23 +4174,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_30.fasta</t>
+          <t>label_UMGS20_1.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001659604972113934</v>
+        <v>0.00105696335877714</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04164520375700335</v>
+        <v>0.0801800188583864</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9558935605245403</v>
+        <v>0.9178884101012462</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0008016307463423097</v>
+        <v>0.0008746076815902238</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9558935605245403</v>
+        <v>0.9178884101012462</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4660,23 +4201,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_33.fasta</t>
+          <t>label_UMGS20_13.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.003851996387860816</v>
+        <v>0.002357080342226391</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07256602055479237</v>
+        <v>0.1443130287696556</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9227323216886116</v>
+        <v>0.852420396590248</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0008496613687350605</v>
+        <v>0.0009094942978699651</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9227323216886116</v>
+        <v>0.852420396590248</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4687,23 +4228,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_38.fasta</t>
+          <t>label_UMGS20_24.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01709161003002368</v>
+        <v>0.01216136001716085</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09480355773878972</v>
+        <v>0.2218574516744621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8872441125717135</v>
+        <v>0.7650464885903298</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0008607196594730977</v>
+        <v>0.0009346997180473344</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8872441125717135</v>
+        <v>0.7650464885903298</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4714,77 +4255,77 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_46.fasta</t>
+          <t>label_UMGS20_26.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8383170624909115</v>
+        <v>0.003629127420492153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1590530149201002</v>
+        <v>0.1308433644118265</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001695534879687873</v>
+        <v>0.863930562109561</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0009343877093003425</v>
+        <v>0.001596946058120294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8383170624909115</v>
+        <v>0.863930562109561</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>s__Caecibacter hominis</t>
+          <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_47.fasta</t>
+          <t>label_UMGS20_31.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02449238059835602</v>
+        <v>0.105279127894047</v>
       </c>
       <c r="C48" t="n">
-        <v>2.219707696492563e-14</v>
+        <v>0.1027050410681534</v>
       </c>
       <c r="D48" t="n">
-        <v>8.948041943898199e-07</v>
+        <v>0.7911444034058379</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9755067245974274</v>
+        <v>0.0008714276319617162</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9755067245974274</v>
+        <v>0.7911444034058379</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp900549385</t>
+          <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_6.fasta</t>
+          <t>label_UMGS20_35.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001027515038875153</v>
+        <v>0.06864844337530344</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1630142837412114</v>
+        <v>0.1429806332009013</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8349692025449978</v>
+        <v>0.7874218892518814</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0009889986749156631</v>
+        <v>0.000949034171913802</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8349692025449978</v>
+        <v>0.7874218892518814</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4795,23 +4336,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_1.fasta</t>
+          <t>label_UMGS20_37.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00105696335877714</v>
+        <v>0.03955352849543761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0801800188583864</v>
+        <v>0.3276720216875549</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9178884101012462</v>
+        <v>0.6297238458983155</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0008746076815902238</v>
+        <v>0.00305060391869201</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9178884101012462</v>
+        <v>0.6297238458983155</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4822,23 +4363,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_13.fasta</t>
+          <t>label_UMGS20_39.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002357080342226391</v>
+        <v>0.02521811852840332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1443130287696556</v>
+        <v>0.2407370546339549</v>
       </c>
       <c r="D51" t="n">
-        <v>0.852420396590248</v>
+        <v>0.729943842731108</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0009094942978699651</v>
+        <v>0.004100984106533543</v>
       </c>
       <c r="F51" t="n">
-        <v>0.852420396590248</v>
+        <v>0.729943842731108</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4849,23 +4390,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_24.fasta</t>
+          <t>label_UMGS20_4.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01216136001716085</v>
+        <v>0.0009012811649268857</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2218574516744621</v>
+        <v>0.05446615909164643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7650464885903298</v>
+        <v>0.9437815537299279</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0009346997180473344</v>
+        <v>0.0008510060134987609</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7650464885903298</v>
+        <v>0.9437815537299279</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4876,50 +4417,50 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_26.fasta</t>
+          <t>label_UMGS20_42.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.003629127420492153</v>
+        <v>0.2008273040266721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1308433644118265</v>
+        <v>0.4436083373345655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.863930562109561</v>
+        <v>0.3515753209722652</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001596946058120294</v>
+        <v>0.003989037666497137</v>
       </c>
       <c r="F53" t="n">
-        <v>0.863930562109561</v>
+        <v>0.4436083373345655</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp003467125</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_31.fasta</t>
+          <t>label_UMGS20_5.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.105279127894047</v>
+        <v>0.004576910584927203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1027050410681534</v>
+        <v>0.09811756253297302</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7911444034058379</v>
+        <v>0.8964454087675179</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0008714276319617162</v>
+        <v>0.0008601181145818738</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7911444034058379</v>
+        <v>0.8964454087675179</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4930,187 +4471,25 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS20_35.fasta</t>
+          <t>label_UMGS20_8.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.06864844337530344</v>
+        <v>0.0028981766835905</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1429806332009013</v>
+        <v>0.1079300888054853</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7874218892518814</v>
+        <v>0.8883137907867986</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000949034171913802</v>
+        <v>0.0008579437241256051</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7874218892518814</v>
+        <v>0.8883137907867986</v>
       </c>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS20_37.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.03955352849543761</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.3276720216875549</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.6297238458983155</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.00305060391869201</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.6297238458983155</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS20_39.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.02521811852840332</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.2407370546339549</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.729943842731108</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.004100984106533543</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.729943842731108</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS20_4.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.0009012811649268857</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.05446615909164643</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9437815537299279</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.0008510060134987609</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.9437815537299279</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS20_42.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.2008273040266721</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.4436083373345655</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.3515753209722652</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.003989037666497137</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.4436083373345655</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>s__Caecibacter massiliensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS20_5.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.004576910584927203</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.09811756253297302</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.8964454087675179</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.0008601181145818738</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.8964454087675179</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS20_8.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.0028981766835905</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.1079300888054853</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.8883137907867986</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.0008579437241256051</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.8883137907867986</v>
-      </c>
-      <c r="G61" t="inlineStr">
         <is>
           <t>s__Caecibacter sp003467125</t>
         </is>
@@ -5127,7 +4506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5715,23 +5094,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_1.fasta</t>
+          <t>label_UMGS1181_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006443769330584017</v>
+        <v>7.197332390713811e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>2.217548927616492e-14</v>
+        <v>6.920331640618474e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0275298870431129</v>
+        <v>0.03443780100728015</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9718257360238065</v>
+        <v>0.9654210223524066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9718257360238065</v>
+        <v>0.9654210223524066</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -5742,23 +5121,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_100.fasta</t>
+          <t>label_UMGS1181_10.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001013293289124575</v>
+        <v>0.000238833255402902</v>
       </c>
       <c r="C23" t="n">
-        <v>2.219839204369166e-14</v>
+        <v>2.218280327029308e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001655960640047063</v>
+        <v>0.03595909654527597</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9988211106468485</v>
+        <v>0.9638020701992989</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9988211106468485</v>
+        <v>0.9638020701992989</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -5769,23 +5148,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_102.fasta</t>
+          <t>label_UMGS1181_101.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01743114353593735</v>
+        <v>0.003045225279887225</v>
       </c>
       <c r="C24" t="n">
-        <v>2.219093813847584e-14</v>
+        <v>2.220284489059597e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>4.033190577589049e-05</v>
+        <v>0.005172639992382075</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9825285245582647</v>
+        <v>0.9917821347277084</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9825285245582647</v>
+        <v>0.9917821347277084</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -5796,23 +5175,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_108.fasta</t>
+          <t>label_UMGS1181_105.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03725022402583668</v>
+        <v>0.008005723395198453</v>
       </c>
       <c r="C25" t="n">
-        <v>2.218888300179322e-14</v>
+        <v>2.219682765411532e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>1.261567279979836e-05</v>
+        <v>9.121244430267722e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9627371603013413</v>
+        <v>0.9919030641604768</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9627371603013413</v>
+        <v>0.9919030641604768</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -5823,23 +5202,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_109.fasta</t>
+          <t>label_UMGS1181_11.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001406402088578024</v>
+        <v>0.0001489898472467212</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220019747825971e-14</v>
+        <v>2.218114019350795e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0005127078510137182</v>
+        <v>0.04769475426658879</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9980808900603859</v>
+        <v>0.9521562558861424</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9980808900603859</v>
+        <v>0.9521562558861424</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -5850,23 +5229,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_112.fasta</t>
+          <t>label_UMGS1181_113.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01176568141110722</v>
+        <v>0.01134631081739545</v>
       </c>
       <c r="C27" t="n">
-        <v>2.219670734030814e-14</v>
+        <v>2.219453305568076e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>6.255864551824758e-06</v>
+        <v>0.0004803809267156527</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9882280627243187</v>
+        <v>0.9881733082558667</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9882280627243187</v>
+        <v>0.9881733082558667</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -5877,23 +5256,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_116.fasta</t>
+          <t>label_UMGS1181_114.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0247378555064185</v>
+        <v>0.01990601908912682</v>
       </c>
       <c r="C28" t="n">
-        <v>2.219848394800479e-14</v>
+        <v>2.21936526669414e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>9.192814514158138e-08</v>
+        <v>4.399630884916192e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9752620525654141</v>
+        <v>0.9800499846020018</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9752620525654141</v>
+        <v>0.9800499846020018</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -5904,23 +5283,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_15.fasta</t>
+          <t>label_UMGS1181_115.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001918688675374285</v>
+        <v>0.01419111842346443</v>
       </c>
       <c r="C29" t="n">
-        <v>2.215358731369102e-14</v>
+        <v>2.219299042518488e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06545653081885318</v>
+        <v>0.0003453641914835884</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9326247805057505</v>
+        <v>0.9854635173850298</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9326247805057505</v>
+        <v>0.9854635173850298</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -5931,23 +5310,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_17.fasta</t>
+          <t>label_UMGS1181_14.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01131272925425532</v>
+        <v>0.04891092447530671</v>
       </c>
       <c r="C30" t="n">
-        <v>2.224041182425474e-14</v>
+        <v>2.220868331049058e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04893239667880021</v>
+        <v>0.01216567350952933</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9397548740669223</v>
+        <v>0.9389234020151418</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9397548740669223</v>
+        <v>0.9389234020151418</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -5958,23 +5337,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_21.fasta</t>
+          <t>label_UMGS1181_18.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01707026384548892</v>
+        <v>0.01155244174935212</v>
       </c>
       <c r="C31" t="n">
-        <v>2.229804716651653e-14</v>
+        <v>2.221079030087398e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08119430705566588</v>
+        <v>0.09508808966029433</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9017354290988229</v>
+        <v>0.8933594685903313</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9017354290988229</v>
+        <v>0.8933594685903313</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -5985,23 +5364,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_25.fasta</t>
+          <t>label_UMGS1181_20.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002720431477205491</v>
+        <v>0.005260889800050464</v>
       </c>
       <c r="C32" t="n">
-        <v>2.217203518032134e-14</v>
+        <v>2.220266112420529e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05506278854806641</v>
+        <v>0.0165315638783276</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9422167799747059</v>
+        <v>0.9782075463215997</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9422167799747059</v>
+        <v>0.9782075463215997</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -6012,23 +5391,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_3.fasta</t>
+          <t>label_UMGS1181_23.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01544138946285942</v>
+        <v>0.002023144152931137</v>
       </c>
       <c r="C33" t="n">
-        <v>2.22337817366583e-14</v>
+        <v>2.219465732046826e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03498351308694166</v>
+        <v>0.01620272857657936</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9495750974501767</v>
+        <v>0.9817741272704672</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9495750974501767</v>
+        <v>0.9817741272704672</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -6039,23 +5418,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_31.fasta</t>
+          <t>label_UMGS1181_24.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01421936352020637</v>
+        <v>0.01141608990035001</v>
       </c>
       <c r="C34" t="n">
-        <v>2.229508531287553e-14</v>
+        <v>2.221080698402789e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05734437983423819</v>
+        <v>0.03786116181445816</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9284362566455331</v>
+        <v>0.9507227482851697</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9284362566455331</v>
+        <v>0.9507227482851697</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -6066,23 +5445,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_33.fasta</t>
+          <t>label_UMGS1181_36.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002366401735802884</v>
+        <v>0.09446295031312833</v>
       </c>
       <c r="C35" t="n">
-        <v>2.217605355716183e-14</v>
+        <v>3.899965353596524e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04573189472223026</v>
+        <v>0.1075035778400805</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9519017035419447</v>
+        <v>0.7980334718467523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9519017035419447</v>
+        <v>0.7980334718467523</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -6093,23 +5472,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_34.fasta</t>
+          <t>label_UMGS1181_38.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.004206777989393463</v>
+        <v>0.009072102841973444</v>
       </c>
       <c r="C36" t="n">
-        <v>2.217670956375622e-14</v>
+        <v>2.220800970858611e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09339371511869811</v>
+        <v>0.01593561373630361</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9023995068918863</v>
+        <v>0.9749922834217007</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9023995068918863</v>
+        <v>0.9749922834217007</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -6120,23 +5499,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_45.fasta</t>
+          <t>label_UMGS1181_40.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01685902086184765</v>
+        <v>0.003933048843614248</v>
       </c>
       <c r="C37" t="n">
-        <v>2.225314933803603e-14</v>
+        <v>2.21936876612182e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06183131994452881</v>
+        <v>0.02645353561983458</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9213096591936013</v>
+        <v>0.9696134155365289</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9213096591936013</v>
+        <v>0.9696134155365289</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -6147,23 +5526,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_47.fasta</t>
+          <t>label_UMGS1181_44.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0073547089389011</v>
+        <v>0.0376548542630848</v>
       </c>
       <c r="C38" t="n">
-        <v>2.220732196382305e-14</v>
+        <v>2.221572245214467e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03195892702634926</v>
+        <v>0.01952891058524259</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9606863640347274</v>
+        <v>0.9428162351516504</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9606863640347274</v>
+        <v>0.9428162351516504</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -6174,23 +5553,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_48.fasta</t>
+          <t>label_UMGS1181_55.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.002623708391102113</v>
+        <v>0.007647679960137737</v>
       </c>
       <c r="C39" t="n">
-        <v>2.217553421292193e-14</v>
+        <v>2.220457734686096e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04398035016456425</v>
+        <v>0.02773031813178628</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9533959414443114</v>
+        <v>0.9646220019080537</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9533959414443114</v>
+        <v>0.9646220019080537</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -6201,23 +5580,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_5.fasta</t>
+          <t>label_UMGS1181_56.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0006836741073360205</v>
+        <v>0.001985466511498621</v>
       </c>
       <c r="C40" t="n">
-        <v>2.216513872478682e-14</v>
+        <v>2.220095157936038e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04854464969081029</v>
+        <v>0.006831730820975335</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9507716762018315</v>
+        <v>0.9911828026675038</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9507716762018315</v>
+        <v>0.9911828026675038</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -6228,23 +5607,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_52.fasta</t>
+          <t>label_UMGS1181_57.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004925291660284604</v>
+        <v>0.006366968844097415</v>
       </c>
       <c r="C41" t="n">
-        <v>2.218153455445418e-14</v>
+        <v>2.22012664114133e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04555696476214142</v>
+        <v>0.02485634897268708</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9495177435775517</v>
+        <v>0.9687766821831933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9495177435775517</v>
+        <v>0.9687766821831933</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -6255,23 +5634,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_6.fasta</t>
+          <t>label_UMGS1181_60.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06903237814796107</v>
+        <v>0.01710622928725652</v>
       </c>
       <c r="C42" t="n">
-        <v>2.231288220349572e-14</v>
+        <v>2.220873564344893e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01844275349327236</v>
+        <v>0.01073338575226718</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9125248683587442</v>
+        <v>0.9721603849604541</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9125248683587442</v>
+        <v>0.9721603849604541</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -6282,23 +5661,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_76.fasta</t>
+          <t>label_UMGS1181_66.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.003430630246200713</v>
+        <v>0.007370776750681237</v>
       </c>
       <c r="C43" t="n">
-        <v>2.219341251534932e-14</v>
+        <v>2.220602904363873e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02093193785887632</v>
+        <v>0.02042299064405945</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9756374318949008</v>
+        <v>0.9722062326052371</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9756374318949008</v>
+        <v>0.9722062326052371</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -6309,23 +5688,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_77.fasta</t>
+          <t>label_UMGS1181_71.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00228022679016604</v>
+        <v>0.1583786331695759</v>
       </c>
       <c r="C44" t="n">
-        <v>2.220372008748232e-14</v>
+        <v>4.022400672615578e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003104007566982525</v>
+        <v>0.06771114977946653</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9946157656428292</v>
+        <v>0.7739102170509174</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9946157656428292</v>
+        <v>0.7739102170509174</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -6336,23 +5715,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_83.fasta</t>
+          <t>label_UMGS1181_72.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04310729141426468</v>
+        <v>0.009126601552263216</v>
       </c>
       <c r="C45" t="n">
-        <v>2.219746420310314e-14</v>
+        <v>2.220397166528816e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.004623290710398608</v>
+        <v>0.004650556256311006</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9522694178753145</v>
+        <v>0.9862228421914037</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9522694178753145</v>
+        <v>0.9862228421914037</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -6363,23 +5742,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_87.fasta</t>
+          <t>label_UMGS1181_78.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.004809595132212771</v>
+        <v>0.001915572429025869</v>
       </c>
       <c r="C46" t="n">
-        <v>2.220360272801065e-14</v>
+        <v>2.22019171424985e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002547141577695264</v>
+        <v>0.004861881223449193</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9926432632900697</v>
+        <v>0.9932225463475027</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9926432632900697</v>
+        <v>0.9932225463475027</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -6390,23 +5769,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_88.fasta</t>
+          <t>label_UMGS1181_89.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01316525466476197</v>
+        <v>0.007368441776821079</v>
       </c>
       <c r="C47" t="n">
-        <v>2.219351218003548e-14</v>
+        <v>2.220373717871891e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001467508204969918</v>
+        <v>0.004131170767298359</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9853672371302459</v>
+        <v>0.9885003874558584</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9853672371302459</v>
+        <v>0.9885003874558584</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -6417,50 +5796,50 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_90.fasta</t>
+          <t>label_UMGS1181_9.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.4903527680139259</v>
+        <v>0.00324693871558116</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2192149961725861</v>
+        <v>2.219604995116052e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001859484927113907</v>
+        <v>0.01961787422831175</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2885727508863741</v>
+        <v>0.9771351870560849</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4903527680139259</v>
+        <v>0.9771351870560849</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter sp900549385</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_0.fasta</t>
+          <t>label_UMGS1181_99.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.197332390713811e-05</v>
+        <v>0.01409625175167021</v>
       </c>
       <c r="C49" t="n">
-        <v>6.920331640618474e-05</v>
+        <v>2.219259148379609e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03443780100728015</v>
+        <v>0.0005181766595114173</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9654210223524066</v>
+        <v>0.9853855715887962</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9654210223524066</v>
+        <v>0.9853855715887962</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -6471,23 +5850,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_10.fasta</t>
+          <t>label_UMGS1181_103.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.000238833255402902</v>
+        <v>0.0005559928897353591</v>
       </c>
       <c r="C50" t="n">
-        <v>2.218280327029308e-14</v>
+        <v>2.21994765972928e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03595909654527597</v>
+        <v>0.0001246968785564896</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9638020701992989</v>
+        <v>0.999319310231686</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9638020701992989</v>
+        <v>0.999319310231686</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -6498,23 +5877,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_101.fasta</t>
+          <t>label_UMGS1181_104.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003045225279887225</v>
+        <v>0.009705351956561737</v>
       </c>
       <c r="C51" t="n">
-        <v>2.220284489059597e-14</v>
+        <v>2.219976395750818e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005172639992382075</v>
+        <v>0.00105236619438012</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9917821347277084</v>
+        <v>0.989242281849036</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9917821347277084</v>
+        <v>0.989242281849036</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -6525,23 +5904,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_105.fasta</t>
+          <t>label_UMGS1181_107.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.008005723395198453</v>
+        <v>0.001088638851866877</v>
       </c>
       <c r="C52" t="n">
-        <v>2.219682765411532e-14</v>
+        <v>2.219825825785557e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>9.121244430267722e-05</v>
+        <v>6.095465014852438e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9919030641604768</v>
+        <v>0.9988504064979623</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9919030641604768</v>
+        <v>0.9988504064979623</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -6552,23 +5931,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_11.fasta</t>
+          <t>label_UMGS1181_111.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0001489898472467212</v>
+        <v>0.02273177293617852</v>
       </c>
       <c r="C53" t="n">
-        <v>2.218114019350795e-14</v>
+        <v>2.219543695232687e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04769475426658879</v>
+        <v>3.458376468112508e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9521562558861424</v>
+        <v>0.9772647686873313</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9521562558861424</v>
+        <v>0.9772647686873313</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -6579,23 +5958,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_113.fasta</t>
+          <t>label_UMGS1181_16.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01134631081739545</v>
+        <v>0.01361259129373521</v>
       </c>
       <c r="C54" t="n">
-        <v>2.219453305568076e-14</v>
+        <v>2.227345033248618e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0004803809267156527</v>
+        <v>0.05689520874031683</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9881733082558667</v>
+        <v>0.9294921999659257</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9881733082558667</v>
+        <v>0.9294921999659257</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -6606,23 +5985,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_114.fasta</t>
+          <t>label_UMGS1181_22.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01990601908912682</v>
+        <v>0.01038654419068745</v>
       </c>
       <c r="C55" t="n">
-        <v>2.21936526669414e-14</v>
+        <v>2.22570870516609e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>4.399630884916192e-05</v>
+        <v>0.06508443367709797</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9800499846020018</v>
+        <v>0.9245290221321922</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9800499846020018</v>
+        <v>0.9245290221321922</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -6633,23 +6012,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_115.fasta</t>
+          <t>label_UMGS1181_28.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01419111842346443</v>
+        <v>0.002622705668077571</v>
       </c>
       <c r="C56" t="n">
-        <v>2.219299042518488e-14</v>
+        <v>2.217593940110532e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0003453641914835884</v>
+        <v>0.05675940193512654</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9854635173850298</v>
+        <v>0.9406178923967736</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9854635173850298</v>
+        <v>0.9406178923967736</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -6660,23 +6039,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_14.fasta</t>
+          <t>label_UMGS1181_30.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.04891092447530671</v>
+        <v>0.009099685790942278</v>
       </c>
       <c r="C57" t="n">
-        <v>2.220868331049058e-14</v>
+        <v>2.221782646756059e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01216567350952933</v>
+        <v>0.06315560546020473</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9389234020151418</v>
+        <v>0.9277447087488309</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9389234020151418</v>
+        <v>0.9277447087488309</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -6687,23 +6066,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_18.fasta</t>
+          <t>label_UMGS1181_37.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01155244174935212</v>
+        <v>0.005303294386662407</v>
       </c>
       <c r="C58" t="n">
-        <v>2.221079030087398e-14</v>
+        <v>2.218500140870548e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09508808966029433</v>
+        <v>0.05235455944032397</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8933594685903313</v>
+        <v>0.9423421461729914</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8933594685903313</v>
+        <v>0.9423421461729914</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -6714,23 +6093,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_20.fasta</t>
+          <t>label_UMGS1181_42.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.005260889800050464</v>
+        <v>0.003550162397618103</v>
       </c>
       <c r="C59" t="n">
-        <v>2.220266112420529e-14</v>
+        <v>2.216302524997971e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0165315638783276</v>
+        <v>0.06609685842348896</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9782075463215997</v>
+        <v>0.9303529791788707</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9782075463215997</v>
+        <v>0.9303529791788707</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -6741,23 +6120,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_23.fasta</t>
+          <t>label_UMGS1181_46.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.002023144152931137</v>
+        <v>0.001046164183754621</v>
       </c>
       <c r="C60" t="n">
-        <v>2.219465732046826e-14</v>
+        <v>2.217594657965282e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01620272857657936</v>
+        <v>0.0281473121834155</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9817741272704672</v>
+        <v>0.9708065236328077</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9817741272704672</v>
+        <v>0.9708065236328077</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -6768,23 +6147,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_24.fasta</t>
+          <t>label_UMGS1181_50.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01141608990035001</v>
+        <v>0.004789393699423741</v>
       </c>
       <c r="C61" t="n">
-        <v>2.221080698402789e-14</v>
+        <v>2.219349344685725e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03786116181445816</v>
+        <v>0.03036754930102387</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9507227482851697</v>
+        <v>0.9648430569995301</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9507227482851697</v>
+        <v>0.9648430569995301</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -6795,23 +6174,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_36.fasta</t>
+          <t>label_UMGS1181_63.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.09446295031312833</v>
+        <v>0.002394191226463963</v>
       </c>
       <c r="C62" t="n">
-        <v>3.899965353596524e-14</v>
+        <v>2.219779124757939e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1075035778400805</v>
+        <v>0.01257779934751744</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7980334718467523</v>
+        <v>0.9850280094259964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7980334718467523</v>
+        <v>0.9850280094259964</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -6822,23 +6201,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_38.fasta</t>
+          <t>label_UMGS1181_69.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.009072102841973444</v>
+        <v>0.009378901354604275</v>
       </c>
       <c r="C63" t="n">
-        <v>2.220800970858611e-14</v>
+        <v>2.220910865801818e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01593561373630361</v>
+        <v>0.00763096572069578</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9749922834217007</v>
+        <v>0.9829901329246777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9749922834217007</v>
+        <v>0.9829901329246777</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -6849,23 +6228,23 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_40.fasta</t>
+          <t>label_UMGS1181_7.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.003933048843614248</v>
+        <v>0.0004979321898297296</v>
       </c>
       <c r="C64" t="n">
-        <v>2.21936876612182e-14</v>
+        <v>2.217043042239371e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02645353561983458</v>
+        <v>0.03749449289230517</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9696134155365289</v>
+        <v>0.9620075749178429</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9696134155365289</v>
+        <v>0.9620075749178429</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -6876,23 +6255,23 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_44.fasta</t>
+          <t>label_UMGS1181_74.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0376548542630848</v>
+        <v>4.861343894691081e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>2.221572245214467e-14</v>
+        <v>2.219811184572252e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01952891058524259</v>
+        <v>0.003747234619970018</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9428162351516504</v>
+        <v>0.9962041519410609</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9428162351516504</v>
+        <v>0.9962041519410609</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -6903,23 +6282,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_55.fasta</t>
+          <t>label_UMGS1181_75.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.007647679960137737</v>
+        <v>0.001986010996408904</v>
       </c>
       <c r="C66" t="n">
-        <v>2.220457734686096e-14</v>
+        <v>2.220240276383183e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02773031813178628</v>
+        <v>0.004953002274006467</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9646220019080537</v>
+        <v>0.9930609867295624</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9646220019080537</v>
+        <v>0.9930609867295624</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -6930,23 +6309,23 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_56.fasta</t>
+          <t>label_UMGS1181_8.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001985466511498621</v>
+        <v>0.01492674864162901</v>
       </c>
       <c r="C67" t="n">
-        <v>2.220095157936038e-14</v>
+        <v>2.222872773649726e-14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006831730820975335</v>
+        <v>0.02509213942558038</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9911828026675038</v>
+        <v>0.9599811119327685</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9911828026675038</v>
+        <v>0.9599811119327685</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -6957,23 +6336,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_57.fasta</t>
+          <t>label_UMGS1181_86.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.006366968844097415</v>
+        <v>0.005577330532455005</v>
       </c>
       <c r="C68" t="n">
-        <v>2.22012664114133e-14</v>
+        <v>2.219834164062516e-14</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02485634897268708</v>
+        <v>0.0007686256436994723</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9687766821831933</v>
+        <v>0.9936540438238233</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9687766821831933</v>
+        <v>0.9936540438238233</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -6984,23 +6363,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_60.fasta</t>
+          <t>label_UMGS1181_93.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01710622928725652</v>
+        <v>0.0003550565665402374</v>
       </c>
       <c r="C69" t="n">
-        <v>2.220873564344893e-14</v>
+        <v>2.219938630991991e-14</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01073338575226718</v>
+        <v>0.002850136577720283</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9721603849604541</v>
+        <v>0.9967948068557174</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9721603849604541</v>
+        <v>0.9967948068557174</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -7011,23 +6390,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_66.fasta</t>
+          <t>label_UMGS1181_94.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.007370776750681237</v>
+        <v>0.005355190011402782</v>
       </c>
       <c r="C70" t="n">
-        <v>2.220602904363873e-14</v>
+        <v>2.220090341252961e-14</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02042299064405945</v>
+        <v>0.001408785833914846</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9722062326052371</v>
+        <v>0.9932360241546603</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9722062326052371</v>
+        <v>0.9932360241546603</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -7038,23 +6417,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_71.fasta</t>
+          <t>label_UMGS1181_97.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1583786331695759</v>
+        <v>0.001900233348931042</v>
       </c>
       <c r="C71" t="n">
-        <v>4.022400672615578e-14</v>
+        <v>2.220147336273732e-14</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06771114977946653</v>
+        <v>0.0009287231033243467</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7739102170509174</v>
+        <v>0.9971710435477223</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7739102170509174</v>
+        <v>0.9971710435477223</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -7065,23 +6444,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_72.fasta</t>
+          <t>label_UMGS1181_106.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.009126601552263216</v>
+        <v>0.001463130662151438</v>
       </c>
       <c r="C72" t="n">
-        <v>2.220397166528816e-14</v>
+        <v>2.219820184463836e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.004650556256311006</v>
+        <v>2.537213120226865e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9862228421914037</v>
+        <v>0.998511497206624</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9862228421914037</v>
+        <v>0.998511497206624</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -7092,23 +6471,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_78.fasta</t>
+          <t>label_UMGS1181_12.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001915572429025869</v>
+        <v>0.004207322648281557</v>
       </c>
       <c r="C73" t="n">
-        <v>2.22019171424985e-14</v>
+        <v>2.217761501661567e-14</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004861881223449193</v>
+        <v>0.09330242201913611</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9932225463475027</v>
+        <v>0.90249025533256</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9932225463475027</v>
+        <v>0.90249025533256</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -7119,23 +6498,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_89.fasta</t>
+          <t>label_UMGS1181_13.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007368441776821079</v>
+        <v>0.0003833862502102814</v>
       </c>
       <c r="C74" t="n">
-        <v>2.220373717871891e-14</v>
+        <v>2.216238236174607e-14</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004131170767298359</v>
+        <v>0.04778684318827616</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9885003874558584</v>
+        <v>0.9518297705614914</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9885003874558584</v>
+        <v>0.9518297705614914</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -7146,23 +6525,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_9.fasta</t>
+          <t>label_UMGS1181_2.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.00324693871558116</v>
+        <v>0.0337851269246443</v>
       </c>
       <c r="C75" t="n">
-        <v>2.219604995116052e-14</v>
+        <v>2.221494012385057e-14</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01961787422831175</v>
+        <v>0.008733953347931249</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9771351870560849</v>
+        <v>0.9574809197274022</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9771351870560849</v>
+        <v>0.9574809197274022</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -7173,23 +6552,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_99.fasta</t>
+          <t>label_UMGS1181_26.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01409625175167021</v>
+        <v>0.002469432254390844</v>
       </c>
       <c r="C76" t="n">
-        <v>2.219259148379609e-14</v>
+        <v>2.216962861608323e-14</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0005181766595114173</v>
+        <v>0.06490795012442478</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9853855715887962</v>
+        <v>0.9326226176211623</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9853855715887962</v>
+        <v>0.9326226176211623</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -7200,23 +6579,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_103.fasta</t>
+          <t>label_UMGS1181_32.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0005559928897353591</v>
+        <v>0.000868385257048179</v>
       </c>
       <c r="C77" t="n">
-        <v>2.21994765972928e-14</v>
+        <v>2.215779455930155e-14</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0001246968785564896</v>
+        <v>0.05457692029283106</v>
       </c>
       <c r="E77" t="n">
-        <v>0.999319310231686</v>
+        <v>0.9445546944500987</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999319310231686</v>
+        <v>0.9445546944500987</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -7227,23 +6606,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_104.fasta</t>
+          <t>label_UMGS1181_35.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.009705351956561737</v>
+        <v>0.0002376508645140204</v>
       </c>
       <c r="C78" t="n">
-        <v>2.219976395750818e-14</v>
+        <v>2.217214039048252e-14</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00105236619438012</v>
+        <v>0.03710947616900374</v>
       </c>
       <c r="E78" t="n">
-        <v>0.989242281849036</v>
+        <v>0.9626528729664601</v>
       </c>
       <c r="F78" t="n">
-        <v>0.989242281849036</v>
+        <v>0.9626528729664601</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -7254,23 +6633,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_107.fasta</t>
+          <t>label_UMGS1181_4.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001088638851866877</v>
+        <v>0.004855315269151518</v>
       </c>
       <c r="C79" t="n">
-        <v>2.219825825785557e-14</v>
+        <v>2.220411407860278e-14</v>
       </c>
       <c r="D79" t="n">
-        <v>6.095465014852438e-05</v>
+        <v>0.01493088059055634</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9988504064979623</v>
+        <v>0.9802138041402699</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9988504064979623</v>
+        <v>0.9802138041402699</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -7281,23 +6660,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_111.fasta</t>
+          <t>label_UMGS1181_43.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02273177293617852</v>
+        <v>0.0002325821026480786</v>
       </c>
       <c r="C80" t="n">
-        <v>2.219543695232687e-14</v>
+        <v>2.219116259307302e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>3.458376468112508e-06</v>
+        <v>0.01129173903674311</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9772647686873313</v>
+        <v>0.9884756788605867</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9772647686873313</v>
+        <v>0.9884756788605867</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -7308,23 +6687,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_16.fasta</t>
+          <t>label_UMGS1181_49.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01361259129373521</v>
+        <v>0.003901408942360834</v>
       </c>
       <c r="C81" t="n">
-        <v>2.227345033248618e-14</v>
+        <v>2.220371306580709e-14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05689520874031683</v>
+        <v>0.009559278208365753</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9294921999659257</v>
+        <v>0.9865393128492511</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9294921999659257</v>
+        <v>0.9865393128492511</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -7335,50 +6714,50 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_22.fasta</t>
+          <t>label_UMGS1181_58.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01038654419068745</v>
+        <v>0.07577776338754721</v>
       </c>
       <c r="C82" t="n">
-        <v>2.22570870516609e-14</v>
+        <v>0.3744547550665666</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06508443367709797</v>
+        <v>0.0692785088852282</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9245290221321922</v>
+        <v>0.480488972660658</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9245290221321922</v>
+        <v>0.480488972660658</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>s__Caecibacter sp900549385</t>
+          <t>s__Caecibacter massiliensis</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_28.fasta</t>
+          <t>label_UMGS1181_61.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.002622705668077571</v>
+        <v>0.01982961812208306</v>
       </c>
       <c r="C83" t="n">
-        <v>2.217593940110532e-14</v>
+        <v>2.218484763289743e-14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.05675940193512654</v>
+        <v>0.0001961856981364162</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9406178923967736</v>
+        <v>0.9799741961797583</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9406178923967736</v>
+        <v>0.9799741961797583</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -7389,23 +6768,23 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_30.fasta</t>
+          <t>label_UMGS1181_62.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.009099685790942278</v>
+        <v>0.003843005143078338</v>
       </c>
       <c r="C84" t="n">
-        <v>2.221782646756059e-14</v>
+        <v>2.220526338924475e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06315560546020473</v>
+        <v>0.006267845112095797</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9277447087488309</v>
+        <v>0.9898891497448037</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9277447087488309</v>
+        <v>0.9898891497448037</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -7416,23 +6795,23 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_37.fasta</t>
+          <t>label_UMGS1181_64.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.005303294386662407</v>
+        <v>0.01015333461486159</v>
       </c>
       <c r="C85" t="n">
-        <v>2.218500140870548e-14</v>
+        <v>2.220503899294745e-14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05235455944032397</v>
+        <v>0.004952412229228724</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9423421461729914</v>
+        <v>0.9848942531558875</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9423421461729914</v>
+        <v>0.9848942531558875</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -7443,23 +6822,23 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_42.fasta</t>
+          <t>label_UMGS1181_67.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.003550162397618103</v>
+        <v>0.000432202575109032</v>
       </c>
       <c r="C86" t="n">
-        <v>2.216302524997971e-14</v>
+        <v>2.219962020928868e-14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06609685842348896</v>
+        <v>0.00288278095010573</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9303529791788707</v>
+        <v>0.996685016474763</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9303529791788707</v>
+        <v>0.996685016474763</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -7470,23 +6849,23 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_46.fasta</t>
+          <t>label_UMGS1181_68.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001046164183754621</v>
+        <v>0.03365740943060122</v>
       </c>
       <c r="C87" t="n">
-        <v>2.217594657965282e-14</v>
+        <v>2.218033085850807e-14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0281473121834155</v>
+        <v>9.399406155107154e-05</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9708065236328077</v>
+        <v>0.9662485965078255</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9708065236328077</v>
+        <v>0.9662485965078255</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -7497,23 +6876,23 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_50.fasta</t>
+          <t>label_UMGS1181_82.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.004789393699423741</v>
+        <v>0.002291790741627526</v>
       </c>
       <c r="C88" t="n">
-        <v>2.219349344685725e-14</v>
+        <v>2.219879787217904e-14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03036754930102387</v>
+        <v>0.0001518094589389441</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9648430569995301</v>
+        <v>0.9975563997994114</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9648430569995301</v>
+        <v>0.9975563997994114</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -7524,23 +6903,23 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_63.fasta</t>
+          <t>label_UMGS1181_85.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.002394191226463963</v>
+        <v>0.008372391376650783</v>
       </c>
       <c r="C89" t="n">
-        <v>2.219779124757939e-14</v>
+        <v>2.219411406406098e-14</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01257779934751744</v>
+        <v>0.0003091381978100757</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9850280094259964</v>
+        <v>0.991318470425517</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9850280094259964</v>
+        <v>0.991318470425517</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -7551,23 +6930,23 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_69.fasta</t>
+          <t>label_UMGS1181_91.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.009378901354604275</v>
+        <v>0.004314231334283321</v>
       </c>
       <c r="C90" t="n">
-        <v>2.220910865801818e-14</v>
+        <v>2.219761727017426e-14</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00763096572069578</v>
+        <v>5.750172468279622e-05</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9829901329246777</v>
+        <v>0.9956282669410116</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9829901329246777</v>
+        <v>0.9956282669410116</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -7578,23 +6957,23 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_7.fasta</t>
+          <t>label_UMGS1181_95.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0004979321898297296</v>
+        <v>0.0072342356238438</v>
       </c>
       <c r="C91" t="n">
-        <v>2.217043042239371e-14</v>
+        <v>2.219536773952091e-14</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03749449289230517</v>
+        <v>0.0001004226111806106</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9620075749178429</v>
+        <v>0.9926653417649534</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9620075749178429</v>
+        <v>0.9926653417649534</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -7605,23 +6984,23 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_74.fasta</t>
+          <t>label_UMGS1181_98.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.861343894691081e-05</v>
+        <v>0.002201356500860659</v>
       </c>
       <c r="C92" t="n">
-        <v>2.219811184572252e-14</v>
+        <v>2.219819395934279e-14</v>
       </c>
       <c r="D92" t="n">
-        <v>0.003747234619970018</v>
+        <v>1.693785536960363e-05</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9962041519410609</v>
+        <v>0.9977817056437476</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9962041519410609</v>
+        <v>0.9977817056437476</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -7632,23 +7011,23 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_75.fasta</t>
+          <t>label_UMGS1181_110.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001986010996408904</v>
+        <v>0.008366074670924954</v>
       </c>
       <c r="C93" t="n">
-        <v>2.220240276383183e-14</v>
+        <v>2.219511086196036e-14</v>
       </c>
       <c r="D93" t="n">
-        <v>0.004953002274006467</v>
+        <v>8.748260182242923e-05</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9930609867295624</v>
+        <v>0.9915464427272304</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9930609867295624</v>
+        <v>0.9915464427272304</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -7659,23 +7038,23 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_8.fasta</t>
+          <t>label_UMGS1181_117.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01492674864162901</v>
+        <v>0.0041060657798106</v>
       </c>
       <c r="C94" t="n">
-        <v>2.222872773649726e-14</v>
+        <v>2.219827500565724e-14</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02509213942558038</v>
+        <v>0.000291661935661139</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9599811119327685</v>
+        <v>0.995602272284506</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9599811119327685</v>
+        <v>0.995602272284506</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -7686,23 +7065,23 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_86.fasta</t>
+          <t>label_UMGS1181_19.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.005577330532455005</v>
+        <v>0.01004658353434531</v>
       </c>
       <c r="C95" t="n">
-        <v>2.219834164062516e-14</v>
+        <v>2.222931676556071e-14</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0007686256436994723</v>
+        <v>0.03378321186780629</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9936540438238233</v>
+        <v>0.9561702045978262</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9936540438238233</v>
+        <v>0.9561702045978262</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -7713,23 +7092,23 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_93.fasta</t>
+          <t>label_UMGS1181_27.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0003550565665402374</v>
+        <v>0.001263766536160935</v>
       </c>
       <c r="C96" t="n">
-        <v>2.219938630991991e-14</v>
+        <v>2.216613116293273e-14</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002850136577720283</v>
+        <v>0.03781765935121453</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9967948068557174</v>
+        <v>0.9609185741126025</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9967948068557174</v>
+        <v>0.9609185741126025</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -7740,23 +7119,23 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_94.fasta</t>
+          <t>label_UMGS1181_29.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.005355190011402782</v>
+        <v>0.0007908915536807315</v>
       </c>
       <c r="C97" t="n">
-        <v>2.220090341252961e-14</v>
+        <v>2.216886178023046e-14</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001408785833914846</v>
+        <v>0.03626984932243322</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9932360241546603</v>
+        <v>0.9629392591238639</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9932360241546603</v>
+        <v>0.9629392591238639</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -7767,23 +7146,23 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_97.fasta</t>
+          <t>label_UMGS1181_39.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.001900233348931042</v>
+        <v>0.002584279707669264</v>
       </c>
       <c r="C98" t="n">
-        <v>2.220147336273732e-14</v>
+        <v>2.218602477989943e-14</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0009287231033243467</v>
+        <v>0.02415005454469327</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9971710435477223</v>
+        <v>0.9732656657476153</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9971710435477223</v>
+        <v>0.9732656657476153</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -7794,23 +7173,23 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_106.fasta</t>
+          <t>label_UMGS1181_41.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.001463130662151438</v>
+        <v>0.007145185053415604</v>
       </c>
       <c r="C99" t="n">
-        <v>2.219820184463836e-14</v>
+        <v>2.220719033422793e-14</v>
       </c>
       <c r="D99" t="n">
-        <v>2.537213120226865e-05</v>
+        <v>0.02605375202075107</v>
       </c>
       <c r="E99" t="n">
-        <v>0.998511497206624</v>
+        <v>0.966801062925811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.998511497206624</v>
+        <v>0.966801062925811</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -7821,23 +7200,23 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_12.fasta</t>
+          <t>label_UMGS1181_51.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.004207322648281557</v>
+        <v>0.001451364524676813</v>
       </c>
       <c r="C100" t="n">
-        <v>2.217761501661567e-14</v>
+        <v>2.218635260237789e-14</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09330242201913611</v>
+        <v>0.01778395181854289</v>
       </c>
       <c r="E100" t="n">
-        <v>0.90249025533256</v>
+        <v>0.9807646836567582</v>
       </c>
       <c r="F100" t="n">
-        <v>0.90249025533256</v>
+        <v>0.9807646836567582</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -7848,23 +7227,23 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_13.fasta</t>
+          <t>label_UMGS1181_53.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0003833862502102814</v>
+        <v>0.0008807957453278714</v>
       </c>
       <c r="C101" t="n">
-        <v>2.216238236174607e-14</v>
+        <v>2.219625154246592e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04778684318827616</v>
+        <v>0.007858651680545822</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9518297705614914</v>
+        <v>0.9912605525741041</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9518297705614914</v>
+        <v>0.9912605525741041</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -7875,23 +7254,23 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_2.fasta</t>
+          <t>label_UMGS1181_54.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0337851269246443</v>
+        <v>0.01586146627658757</v>
       </c>
       <c r="C102" t="n">
-        <v>2.221494012385057e-14</v>
+        <v>2.22462637130371e-14</v>
       </c>
       <c r="D102" t="n">
-        <v>0.008733953347931249</v>
+        <v>0.02736409645196343</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9574809197274022</v>
+        <v>0.9567744372714267</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9574809197274022</v>
+        <v>0.9567744372714267</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -7902,23 +7281,23 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_26.fasta</t>
+          <t>label_UMGS1181_59.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.002469432254390844</v>
+        <v>0.01719914144816657</v>
       </c>
       <c r="C103" t="n">
-        <v>2.216962861608323e-14</v>
+        <v>2.219006246751637e-14</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06490795012442478</v>
+        <v>0.001782838359381946</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9326226176211623</v>
+        <v>0.9810180201924292</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9326226176211623</v>
+        <v>0.9810180201924292</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -7929,23 +7308,23 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_32.fasta</t>
+          <t>label_UMGS1181_65.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.000868385257048179</v>
+        <v>0.009761507226677603</v>
       </c>
       <c r="C104" t="n">
-        <v>2.215779455930155e-14</v>
+        <v>2.221176461118568e-14</v>
       </c>
       <c r="D104" t="n">
-        <v>0.05457692029283106</v>
+        <v>0.00784909161284009</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9445546944500987</v>
+        <v>0.9823894011604601</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9445546944500987</v>
+        <v>0.9823894011604601</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -7956,23 +7335,23 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_35.fasta</t>
+          <t>label_UMGS1181_70.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0002376508645140204</v>
+        <v>0.001964881544299977</v>
       </c>
       <c r="C105" t="n">
-        <v>2.217214039048252e-14</v>
+        <v>2.220245493046676e-14</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03710947616900374</v>
+        <v>0.005192581350364068</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9626528729664601</v>
+        <v>0.9928425371053137</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9626528729664601</v>
+        <v>0.9928425371053137</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -7983,23 +7362,23 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_4.fasta</t>
+          <t>label_UMGS1181_73.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.004855315269151518</v>
+        <v>0.02978485925213058</v>
       </c>
       <c r="C106" t="n">
-        <v>2.220411407860278e-14</v>
+        <v>2.217542144746055e-14</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01493088059055634</v>
+        <v>0.001454653694303934</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9802138041402699</v>
+        <v>0.9687604870535432</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9802138041402699</v>
+        <v>0.9687604870535432</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -8010,23 +7389,23 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_43.fasta</t>
+          <t>label_UMGS1181_79.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0002325821026480786</v>
+        <v>0.001937718127401427</v>
       </c>
       <c r="C107" t="n">
-        <v>2.219116259307302e-14</v>
+        <v>2.220238718072147e-14</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01129173903674311</v>
+        <v>0.00438083736005797</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9884756788605867</v>
+        <v>0.9936814445125183</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9884756788605867</v>
+        <v>0.9936814445125183</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -8037,23 +7416,23 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_49.fasta</t>
+          <t>label_UMGS1181_80.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.003901408942360834</v>
+        <v>0.003124262467099529</v>
       </c>
       <c r="C108" t="n">
-        <v>2.220371306580709e-14</v>
+        <v>2.220446679380465e-14</v>
       </c>
       <c r="D108" t="n">
-        <v>0.009559278208365753</v>
+        <v>0.003006367873394448</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9865393128492511</v>
+        <v>0.9938693696594838</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9865393128492511</v>
+        <v>0.9938693696594838</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -8064,50 +7443,50 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_58.fasta</t>
+          <t>label_UMGS1181_81.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.07577776338754721</v>
+        <v>0.009941390874804602</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3744547550665666</v>
+        <v>2.220769304168639e-14</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0692785088852282</v>
+        <v>0.004995720606365143</v>
       </c>
       <c r="E109" t="n">
-        <v>0.480488972660658</v>
+        <v>0.9850628885188081</v>
       </c>
       <c r="F109" t="n">
-        <v>0.480488972660658</v>
+        <v>0.9850628885188081</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>s__Caecibacter massiliensis</t>
+          <t>s__Caecibacter sp900549385</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_61.fasta</t>
+          <t>label_UMGS1181_84.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01982961812208306</v>
+        <v>0.009918298057970634</v>
       </c>
       <c r="C110" t="n">
-        <v>2.218484763289743e-14</v>
+        <v>2.220732420044463e-14</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0001961856981364162</v>
+        <v>0.006251205588762544</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9799741961797583</v>
+        <v>0.9838304963532447</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9799741961797583</v>
+        <v>0.9838304963532447</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -8118,23 +7497,23 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_62.fasta</t>
+          <t>label_UMGS1181_92.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.003843005143078338</v>
+        <v>0.004231023215212907</v>
       </c>
       <c r="C111" t="n">
-        <v>2.220526338924475e-14</v>
+        <v>2.220052652823076e-14</v>
       </c>
       <c r="D111" t="n">
-        <v>0.006267845112095797</v>
+        <v>0.001017327617722716</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9898891497448037</v>
+        <v>0.9947516491670422</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9898891497448037</v>
+        <v>0.9947516491670422</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -8145,754 +7524,25 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1181_64.fasta</t>
+          <t>label_UMGS1181_96.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.01015333461486159</v>
+        <v>0.004686594136935401</v>
       </c>
       <c r="C112" t="n">
-        <v>2.220503899294745e-14</v>
+        <v>2.220028481410844e-14</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004952412229228724</v>
+        <v>0.001058691277257126</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9848942531558875</v>
+        <v>0.9942547145857853</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9848942531558875</v>
+        <v>0.9942547145857853</v>
       </c>
       <c r="G112" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_67.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.000432202575109032</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2.219962020928868e-14</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.00288278095010573</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.996685016474763</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.996685016474763</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_68.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.03365740943060122</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2.218033085850807e-14</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9.399406155107154e-05</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.9662485965078255</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.9662485965078255</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_82.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.002291790741627526</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2.219879787217904e-14</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.0001518094589389441</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.9975563997994114</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.9975563997994114</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_85.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.008372391376650783</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2.219411406406098e-14</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0003091381978100757</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.991318470425517</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.991318470425517</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_91.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.004314231334283321</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2.219761727017426e-14</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5.750172468279622e-05</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9956282669410116</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.9956282669410116</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_95.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.0072342356238438</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.219536773952091e-14</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.0001004226111806106</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9926653417649534</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.9926653417649534</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_98.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.002201356500860659</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.219819395934279e-14</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.693785536960363e-05</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.9977817056437476</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.9977817056437476</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_110.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.008366074670924954</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.219511086196036e-14</v>
-      </c>
-      <c r="D120" t="n">
-        <v>8.748260182242923e-05</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9915464427272304</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.9915464427272304</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_117.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0041060657798106</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.219827500565724e-14</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.000291661935661139</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.995602272284506</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.995602272284506</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_19.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.01004658353434531</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.222931676556071e-14</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.03378321186780629</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.9561702045978262</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.9561702045978262</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_27.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.001263766536160935</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.216613116293273e-14</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.03781765935121453</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9609185741126025</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.9609185741126025</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_29.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.0007908915536807315</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2.216886178023046e-14</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.03626984932243322</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.9629392591238639</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.9629392591238639</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_39.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.002584279707669264</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2.218602477989943e-14</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.02415005454469327</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.9732656657476153</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.9732656657476153</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_41.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.007145185053415604</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2.220719033422793e-14</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.02605375202075107</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.966801062925811</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.966801062925811</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_51.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.001451364524676813</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2.218635260237789e-14</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.01778395181854289</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9807646836567582</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.9807646836567582</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_53.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.0008807957453278714</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2.219625154246592e-14</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.007858651680545822</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.9912605525741041</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.9912605525741041</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_54.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.01586146627658757</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.22462637130371e-14</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.02736409645196343</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.9567744372714267</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.9567744372714267</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_59.fasta</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.01719914144816657</v>
-      </c>
-      <c r="C130" t="n">
-        <v>2.219006246751637e-14</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.001782838359381946</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.9810180201924292</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.9810180201924292</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_65.fasta</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.009761507226677603</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.221176461118568e-14</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.00784909161284009</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.9823894011604601</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.9823894011604601</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_70.fasta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.001964881544299977</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2.220245493046676e-14</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.005192581350364068</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.9928425371053137</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.9928425371053137</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_73.fasta</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.02978485925213058</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.217542144746055e-14</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.001454653694303934</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.9687604870535432</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.9687604870535432</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_79.fasta</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.001937718127401427</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.220238718072147e-14</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.00438083736005797</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.9936814445125183</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.9936814445125183</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_80.fasta</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.003124262467099529</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.220446679380465e-14</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.003006367873394448</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.9938693696594838</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.9938693696594838</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_81.fasta</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.009941390874804602</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.220769304168639e-14</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.004995720606365143</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.9850628885188081</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.9850628885188081</v>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_84.fasta</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.009918298057970634</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.220732420044463e-14</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.006251205588762544</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.9838304963532447</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.9838304963532447</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_92.fasta</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.004231023215212907</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.220052652823076e-14</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.001017327617722716</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.9947516491670422</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.9947516491670422</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp900549385</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1181_96.fasta</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.004686594136935401</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.220028481410844e-14</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.001058691277257126</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.9942547145857853</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.9942547145857853</v>
-      </c>
-      <c r="G139" t="inlineStr">
         <is>
           <t>s__Caecibacter sp900549385</t>
         </is>
